--- a/数据整理/stocks/港股/01211-比亚迪股份.xlsx
+++ b/数据整理/stocks/港股/01211-比亚迪股份.xlsx
@@ -451,7 +451,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F26"/>
+  <dimension ref="A1:H26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -472,15 +472,25 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
           <t>股票总仓位</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>仓位占比</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>仓位排名</t>
         </is>
@@ -492,25 +502,35 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>008253</t>
+          <t>163417</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>华宝致远混合（QDII）A</t>
+          <t>兴全合宜灵活配置混合(LOF)A</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>91.37</t>
+          <t>302.78</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>4.82</t>
-        </is>
-      </c>
-      <c r="F2" t="n">
+          <t>89.12</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.27</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>9.9009</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
         <v>6</v>
       </c>
     </row>
@@ -520,26 +540,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>008254</t>
+          <t>008378</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>华宝致远混合（QDII）C</t>
+          <t>兴全社会价值三年持有期混合</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>91.37</t>
+          <t>53.06</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>4.82</t>
-        </is>
-      </c>
-      <c r="F3" t="n">
-        <v>6</v>
+          <t>88.43</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>2.93</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>1.5547</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="4">
@@ -548,26 +578,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>000934</t>
+          <t>001605</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>国富大中华精选混合QDII</t>
+          <t>富兰克林国海沪港深成长精选股票</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>87.15</t>
+          <t>54.07</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>2.00</t>
-        </is>
-      </c>
-      <c r="F4" t="n">
-        <v>7</v>
+          <t>90.89</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>2.53</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>1.3680</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="5">
@@ -576,26 +616,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>006370</t>
+          <t>005847</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>国富大中华精选混合QDII美元</t>
+          <t>富国沪港深业绩驱动混合A</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>87.15</t>
+          <t>42.00</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>2.00</t>
-        </is>
-      </c>
-      <c r="F5" t="n">
-        <v>7</v>
+          <t>89.17</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>2.98</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>1.2516</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="6">
@@ -604,26 +654,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>008972</t>
+          <t>005491</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>大成恒生综合中小型股指数C</t>
+          <t>兴全合宜灵活配置混合(LOF)C</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>90.63</t>
+          <t>19.20</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>1.83</t>
-        </is>
-      </c>
-      <c r="F6" t="n">
-        <v>4</v>
+          <t>89.12</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>3.27</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.6278</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="7">
@@ -632,26 +692,36 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>011117</t>
+          <t>009846</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>富国沪港深业绩驱动混合C</t>
+          <t>富兰克林国海港股通远见价值混合</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>89.17</t>
+          <t>16.27</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>2.98</t>
-        </is>
-      </c>
-      <c r="F7" t="n">
-        <v>9</v>
+          <t>87.70</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>2.63</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.4279</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="8">
@@ -660,26 +730,36 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>160922</t>
+          <t>000934</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>大成恒生综合中小型股指数(QDII-LOF)A</t>
+          <t>国富大中华精选混合QDII</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>90.63</t>
+          <t>17.40</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>1.83</t>
-        </is>
-      </c>
-      <c r="F8" t="n">
-        <v>4</v>
+          <t>87.15</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>2.00</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.3480</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="9">
@@ -688,26 +768,36 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>006614</t>
+          <t>006370</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>嘉实恒生港股通新经济指数（LOF）C</t>
+          <t>国富大中华精选混合QDII美元</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>94.78</t>
+          <t>17.40</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>2.52</t>
-        </is>
-      </c>
-      <c r="F9" t="n">
-        <v>9</v>
+          <t>87.15</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>2.00</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.3480</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="10">
@@ -716,26 +806,36 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>006786</t>
+          <t>008480</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>泰康中证港股通大消费主题指数A</t>
+          <t>永赢股息优选混合A</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>94.24</t>
+          <t>5.75</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>3.14</t>
-        </is>
-      </c>
-      <c r="F10" t="n">
-        <v>8</v>
+          <t>93.91</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>4.46</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.2564</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="11">
@@ -744,26 +844,36 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>006787</t>
+          <t>011117</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>泰康中证港股通大消费主题指数C</t>
+          <t>富国沪港深业绩驱动混合C</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>94.24</t>
+          <t>4.85</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>3.14</t>
-        </is>
-      </c>
-      <c r="F11" t="n">
-        <v>8</v>
+          <t>89.17</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>2.98</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.1445</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="12">
@@ -772,25 +882,35 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>501311</t>
+          <t>006039</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>嘉实恒生港股通新经济指数（LOF）A</t>
+          <t>富兰克林国海估值优势灵活配置混合</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>94.78</t>
+          <t>6.33</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>2.52</t>
-        </is>
-      </c>
-      <c r="F12" t="n">
+          <t>88.92</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>2.16</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.1367</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
         <v>9</v>
       </c>
     </row>
@@ -800,26 +920,36 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>001605</t>
+          <t>006614</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>富兰克林国海沪港深成长精选股票</t>
+          <t>嘉实恒生港股通新经济指数（LOF）C</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>90.89</t>
+          <t>5.10</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>2.53</t>
-        </is>
-      </c>
-      <c r="F13" t="n">
-        <v>4</v>
+          <t>94.78</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>2.52</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.1285</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="14">
@@ -828,26 +958,36 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>160322</t>
+          <t>501311</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>华夏港股通精选股票(LOF)</t>
+          <t>嘉实恒生港股通新经济指数（LOF）A</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>91.70</t>
+          <t>3.12</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>4.49</t>
-        </is>
-      </c>
-      <c r="F14" t="n">
-        <v>7</v>
+          <t>94.78</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>2.52</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0786</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="15">
@@ -856,25 +996,35 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>004996</t>
+          <t>006768</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>广发港股通恒生综合中型股指数(LOF)C</t>
+          <t>华安沪港深优选混合</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>93.79</t>
+          <t>0.74</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>3.70</t>
-        </is>
-      </c>
-      <c r="F15" t="n">
+          <t>94.80</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>9.66</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0715</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
         <v>1</v>
       </c>
     </row>
@@ -884,26 +1034,36 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>501303</t>
+          <t>160322</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>广发港股通恒生综合中型股指数(LOF)A</t>
+          <t>华夏港股通精选股票(LOF)</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>93.79</t>
+          <t>1.11</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>3.70</t>
-        </is>
-      </c>
-      <c r="F16" t="n">
-        <v>1</v>
+          <t>91.70</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>4.49</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0498</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="17">
@@ -912,25 +1072,35 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>005491</t>
+          <t>008253</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>兴全合宜灵活配置混合(LOF)C</t>
+          <t>华宝致远混合（QDII）A</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>89.12</t>
+          <t>0.71</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>3.27</t>
-        </is>
-      </c>
-      <c r="F17" t="n">
+          <t>91.37</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>4.82</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0342</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
         <v>6</v>
       </c>
     </row>
@@ -940,26 +1110,36 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>163417</t>
+          <t>161620</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>兴全合宜灵活配置混合(LOF)A</t>
+          <t>融通核心价值混合（QDII）</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>89.12</t>
+          <t>0.39</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>3.27</t>
-        </is>
-      </c>
-      <c r="F18" t="n">
-        <v>6</v>
+          <t>71.69</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>4.61</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0180</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="19">
@@ -968,26 +1148,36 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>005847</t>
+          <t>008481</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>富国沪港深业绩驱动混合A</t>
+          <t>永赢股息优选混合C</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>89.17</t>
+          <t>0.38</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>2.98</t>
-        </is>
-      </c>
-      <c r="F19" t="n">
-        <v>9</v>
+          <t>93.91</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>4.46</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0169</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="20">
@@ -996,26 +1186,36 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>006039</t>
+          <t>006786</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>富兰克林国海估值优势灵活配置混合</t>
+          <t>泰康中证港股通大消费主题指数A</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>88.92</t>
+          <t>0.52</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>2.16</t>
-        </is>
-      </c>
-      <c r="F20" t="n">
-        <v>9</v>
+          <t>94.24</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>3.14</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0163</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="21">
@@ -1024,25 +1224,35 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>006768</t>
+          <t>501303</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>华安沪港深优选混合</t>
+          <t>广发港股通恒生综合中型股指数(LOF)A</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>94.80</t>
+          <t>0.44</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>9.66</t>
-        </is>
-      </c>
-      <c r="F21" t="n">
+          <t>93.79</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>3.70</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.0163</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1052,26 +1262,36 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>008378</t>
+          <t>006787</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>兴全社会价值三年持有期混合</t>
+          <t>泰康中证港股通大消费主题指数C</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>88.43</t>
+          <t>0.44</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>2.93</t>
-        </is>
-      </c>
-      <c r="F22" t="n">
-        <v>5</v>
+          <t>94.24</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>3.14</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.0138</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="23">
@@ -1080,26 +1300,36 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>008480</t>
+          <t>008254</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>永赢股息优选混合A</t>
+          <t>华宝致远混合（QDII）C</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>93.91</t>
+          <t>0.18</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>4.46</t>
-        </is>
-      </c>
-      <c r="F23" t="n">
-        <v>10</v>
+          <t>91.37</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>4.82</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.0087</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="24">
@@ -1108,26 +1338,36 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>008481</t>
+          <t>004996</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>永赢股息优选混合C</t>
+          <t>广发港股通恒生综合中型股指数(LOF)C</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>93.91</t>
+          <t>0.15</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>4.46</t>
-        </is>
-      </c>
-      <c r="F24" t="n">
-        <v>10</v>
+          <t>93.79</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>3.70</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.0056</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="25">
@@ -1136,26 +1376,36 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>161620</t>
+          <t>008972</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>融通核心价值混合（QDII）</t>
+          <t>大成恒生综合中小型股指数C</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>71.69</t>
+          <t>0.14</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>4.61</t>
-        </is>
-      </c>
-      <c r="F25" t="n">
-        <v>7</v>
+          <t>90.63</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>1.83</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.0026</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="26">
@@ -1164,25 +1414,35 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>009846</t>
+          <t>160922</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>富兰克林国海港股通远见价值混合</t>
+          <t>大成恒生综合中小型股指数(QDII-LOF)A</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>87.70</t>
+          <t>0.14</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>2.63</t>
-        </is>
-      </c>
-      <c r="F26" t="n">
+          <t>90.63</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>1.83</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.0026</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
         <v>4</v>
       </c>
     </row>
@@ -1197,7 +1457,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1218,15 +1478,25 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
           <t>股票总仓位</t>
         </is>
       </c>
-      <c r="E1" s="2" t="inlineStr">
+      <c r="F1" s="2" t="inlineStr">
         <is>
           <t>仓位占比</t>
         </is>
       </c>
-      <c r="F1" s="2" t="inlineStr">
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
         <is>
           <t>仓位排名</t>
         </is>
@@ -1238,26 +1508,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>006768</t>
+          <t>501311</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>华安沪港深优选混合</t>
+          <t>嘉实恒生港股通新经济指数（LOF）A</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>94.51</t>
+          <t>17.12</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>3.60</t>
-        </is>
-      </c>
-      <c r="F2" t="n">
-        <v>8</v>
+          <t>94.77</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.11</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.5324</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="3">
@@ -1266,26 +1546,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>501303</t>
+          <t>006614</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>广发港股通恒生综合中型股指数(LOF)A</t>
+          <t>嘉实恒生港股通新经济指数（LOF）C</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>93.69</t>
+          <t>5.10</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>2.94</t>
-        </is>
-      </c>
-      <c r="F3" t="n">
-        <v>2</v>
+          <t>94.77</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.11</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.1586</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="4">
@@ -1294,26 +1584,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>004996</t>
+          <t>006768</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>广发港股通恒生综合中型股指数(LOF)C</t>
+          <t>华安沪港深优选混合</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>93.69</t>
+          <t>1.79</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>2.94</t>
-        </is>
-      </c>
-      <c r="F4" t="n">
-        <v>2</v>
+          <t>94.51</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.60</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0644</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="5">
@@ -1322,26 +1622,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>501311</t>
+          <t>501303</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>嘉实恒生港股通新经济指数（LOF）A</t>
+          <t>广发港股通恒生综合中型股指数(LOF)A</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>94.77</t>
+          <t>0.45</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>3.11</t>
-        </is>
-      </c>
-      <c r="F5" t="n">
-        <v>6</v>
+          <t>93.69</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>2.94</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0132</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="6">
@@ -1350,26 +1660,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>006614</t>
+          <t>004996</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>嘉实恒生港股通新经济指数（LOF）C</t>
+          <t>广发港股通恒生综合中型股指数(LOF)C</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>94.77</t>
+          <t>0.15</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>3.11</t>
-        </is>
-      </c>
-      <c r="F6" t="n">
-        <v>6</v>
+          <t>93.69</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>2.94</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0044</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>2</v>
       </c>
     </row>
   </sheetData>

--- a/数据整理/stocks/港股/01211-比亚迪股份.xlsx
+++ b/数据整理/stocks/港股/01211-比亚迪股份.xlsx
@@ -8,6 +8,7 @@
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1695,4 +1696,72 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>5</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.77</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>25</v>
+      </c>
+      <c r="D3" t="n">
+        <v>16.83</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/港股/01211-比亚迪股份.xlsx
+++ b/数据整理/stocks/港股/01211-比亚迪股份.xlsx
@@ -8,7 +8,8 @@
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1704,7 +1705,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D3"/>
+  <dimension ref="A1:H77"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1715,17 +1716,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>持有市值</t>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -1735,14 +1756,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
+          <t>005669</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>前海开源公用事业行业股票</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>166.29</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>90.03</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>5.72</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>9.5118</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
         <v>5</v>
-      </c>
-      <c r="D2" t="n">
-        <v>0.77</v>
       </c>
     </row>
     <row r="3">
@@ -1751,13 +1794,2931 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
+          <t>009896</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>广发港股通成长精选股票A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>94.07</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>92.49</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>7.71</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>7.2528</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>011822</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>易方达产业升级一年封闭运作混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>74.57</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>70.31</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>4.27</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>3.1841</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>001837</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>前海开源沪港深蓝筹精选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>36.48</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>94.28</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>6.71</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>2.4478</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>005847</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>富国沪港深业绩驱动混合A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>46.26</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>88.56</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>4.59</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>2.1233</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>510900</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>易方达恒生国企(QDII-ETF)</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>71.44</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>96.10</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>2.80</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>2.0003</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>001605</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>富兰克林国海沪港深成长精选股票</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>70.93</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>90.56</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>2.76</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>1.9577</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>011162</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>博时港股通领先趋势混合A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>32.43</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>81.98</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>5.94</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>1.9263</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>501311</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>嘉实恒生港股通新经济指数（LOF）A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>25.43</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>94.57</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>5.59</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>1.4215</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>160322</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>华夏港股通精选股票(LOF)</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>19.01</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>88.47</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>5.85</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>1.1121</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>007455</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>富国蓝筹精选股票（QDII）人民币</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>25.40</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>83.48</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>4.15</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>1.0541</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>011637</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>广发沪港深价值成长混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>20.09</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>94.10</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>4.86</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.9764</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>010583</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>富国蓝筹精选股票（QDII）美元</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>23.50</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>83.48</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>4.15</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.9752</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>000934</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>国富大中华精选混合QDII</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>35.22</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>89.45</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>2.60</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.9157</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>006370</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>国富大中华精选混合QDII美元</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>35.22</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>89.45</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>2.60</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.9157</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>005644</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>广发沪港深行业龙头混合</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>17.07</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>88.16</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>4.92</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.8398</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>012208</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>华夏港股前沿经济混合型证券投资基金（QDII）A</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>21.43</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>73.28</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>3.89</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.8336</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>007139</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>富国民裕进取沪港深成长精选混合</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>15.02</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>93.25</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>5.28</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.7931</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>001764</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>广发沪港深新机遇股票</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>11.58</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>91.62</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>5.57</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.6450</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>006039</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>富兰克林国海估值优势灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>19.21</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>90.05</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>3.23</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.6205</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>009846</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>富兰克林国海港股通远见价值混合</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>20.80</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>90.74</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>2.83</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.5886</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>006614</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>嘉实恒生港股通新经济指数（LOF）C</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>9.12</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>94.57</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>5.59</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.5098</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>011823</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>易方达产业升级一年封闭运作混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>11.65</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>70.31</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>4.27</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.4975</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>009897</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>广发港股通成长精选股票C</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>6.09</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>92.49</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>7.71</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.4695</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>513860</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>海富通中证港股通科技交易型开放式指数证券投资基金</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>7.07</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>96.17</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>6.56</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.4638</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>011635</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>富国港股通策略精选混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>11.43</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>85.49</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>3.96</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.4526</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>513980</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>景顺长城中证港股通科技交易型开放式指数证券投资基金</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>6.47</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>95.45</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>6.77</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.4380</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>005583</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>易方达港股通红利灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>8.78</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>90.63</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>4.53</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.3977</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>011163</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>博时港股通领先趋势混合C</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>6.31</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>81.98</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>5.94</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.3748</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>457001</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>国富亚洲机会股票 (QDII)</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>9.27</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>86.13</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>3.04</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.2818</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>010024</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>广发沪港深新起点股票C</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>5.50</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>93.32</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>4.11</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.2260</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>011157</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>弘毅远方港股通智选领航混合A</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>4.48</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>92.04</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>5.01</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.2244</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>005197</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>工银瑞信沪港深精选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>6.67</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>90.24</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>3.17</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.2114</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>517360</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>华安中证沪港深科技100交易型开放式指数证券投资基金</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>2.88</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>95.40</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>6.41</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.1846</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>159850</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>华夏恒生中国企业ETF（QDII）</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>6.36</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>92.66</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>2.71</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.1724</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>159747</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>南方中证香港科技交易型开放式指数证券投资基金(QDII)</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>3.05</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>99.67</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>5.47</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.1668</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>008381</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>前海开源新兴产业混合</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>2.31</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>89.18</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>6.92</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.1599</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>008407</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>恒生前海恒生沪深港通细分行业龙头指数A</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>4.18</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>93.94</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>3.44</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0.1438</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>159960</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>平安港股通恒生中国企业ETF</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>4.21</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>97.28</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>3.19</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>0.1343</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>100055</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>富国全球科技互联网股票(QDII)</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>3.01</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>80.64</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>4.35</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>0.1309</t>
+        </is>
+      </c>
+      <c r="H41" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>513590</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>鹏华中证港股通消费主题交易型开放式指数证券投资基金</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>2.54</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>90.44</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>4.55</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>0.1156</t>
+        </is>
+      </c>
+      <c r="H42" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>159735</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>银华中证港股通消费主题交易型开放式指数证券投资基金</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>2.40</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>92.50</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>4.60</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>0.1104</t>
+        </is>
+      </c>
+      <c r="H43" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>519139</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>海富通沪港深灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>2.56</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>91.38</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>4.26</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>0.1091</t>
+        </is>
+      </c>
+      <c r="H44" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>008861</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>西部利得港股通新机遇灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>2.33</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>81.05</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>3.65</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>0.0850</t>
+        </is>
+      </c>
+      <c r="H45" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>007368</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>浙商沪港深精选混合A</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>2.59</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>84.75</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>3.22</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>0.0834</t>
+        </is>
+      </c>
+      <c r="H46" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>006768</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>华安沪港深优选混合</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>1.09</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>93.53</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>7.61</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>0.0829</t>
+        </is>
+      </c>
+      <c r="H47" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="2" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>501301</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>华宝港股通恒生中国(香港上市)25指数(LOF)A</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>1.99</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>94.45</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>4.01</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>0.0798</t>
+        </is>
+      </c>
+      <c r="H48" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="2" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>011117</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>富国沪港深业绩驱动混合C</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>1.68</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>88.56</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>4.59</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>0.0771</t>
+        </is>
+      </c>
+      <c r="H49" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="2" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>159954</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>南方恒生中国企业ETF</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>2.61</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>99.03</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>2.88</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>0.0752</t>
+        </is>
+      </c>
+      <c r="H50" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="2" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>008519</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>中金中证沪港深优选消费50指数A</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>1.58</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>92.42</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>4.41</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>0.0697</t>
+        </is>
+      </c>
+      <c r="H51" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>007151</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>前海开源沪港深聚瑞混合</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>0.88</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>86.35</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>7.62</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>0.0671</t>
+        </is>
+      </c>
+      <c r="H52" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="2" t="n">
+        <v>51</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>161831</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>银华恒生国企指数（QDII-LOF）</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>2.29</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>84.56</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>2.80</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>0.0641</t>
+        </is>
+      </c>
+      <c r="H53" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="2" t="n">
+        <v>52</v>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>008253</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>华宝致远混合（QDII）A</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>0.92</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>85.18</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>6.89</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>0.0634</t>
+        </is>
+      </c>
+      <c r="H54" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="2" t="n">
+        <v>53</v>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>011158</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>弘毅远方港股通智选领航混合C</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>0.93</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>92.04</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>5.01</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>0.0466</t>
+        </is>
+      </c>
+      <c r="H55" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="2" t="n">
+        <v>54</v>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>007369</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>浙商沪港深精选混合C</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>1.43</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>84.75</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>3.22</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>0.0460</t>
+        </is>
+      </c>
+      <c r="H56" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="2" t="n">
+        <v>55</v>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>005198</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>工银瑞信沪港深精选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>1.03</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>90.24</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>3.17</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>0.0327</t>
+        </is>
+      </c>
+      <c r="H57" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="2" t="n">
+        <v>56</v>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>006923</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>前海开源沪港深非周期性行业股票A</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>0.44</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>88.62</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>7.07</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>0.0311</t>
+        </is>
+      </c>
+      <c r="H58" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="2" t="n">
+        <v>57</v>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>000927</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>博时大中华亚太精选股票(QDII) - 美元现汇</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>0.40</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>92.50</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>6.00</t>
+        </is>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>0.0240</t>
+        </is>
+      </c>
+      <c r="H59" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="2" t="n">
+        <v>58</v>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>050015</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>博时大中华亚太精选股票(QDII) -人民币</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>0.40</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>92.50</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>6.00</t>
+        </is>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>0.0240</t>
+        </is>
+      </c>
+      <c r="H60" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="2" t="n">
+        <v>59</v>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>006787</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>泰康中证港股通大消费主题指数C</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>0.45</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>90.79</t>
+        </is>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>5.00</t>
+        </is>
+      </c>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>0.0225</t>
+        </is>
+      </c>
+      <c r="H61" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="2" t="n">
+        <v>60</v>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>012209</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>华夏港股前沿经济混合型证券投资基金（QDII）C</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>0.57</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>73.28</t>
+        </is>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>3.89</t>
+        </is>
+      </c>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t>0.0222</t>
+        </is>
+      </c>
+      <c r="H62" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="2" t="n">
+        <v>61</v>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>005142</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>中融沪港深大消费主题灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>0.62</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>86.07</t>
+        </is>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>3.52</t>
+        </is>
+      </c>
+      <c r="G63" t="inlineStr">
+        <is>
+          <t>0.0218</t>
+        </is>
+      </c>
+      <c r="H63" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="2" t="n">
+        <v>62</v>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>011638</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>广发沪港深价值成长混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>0.42</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>94.10</t>
+        </is>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>4.86</t>
+        </is>
+      </c>
+      <c r="G64" t="inlineStr">
+        <is>
+          <t>0.0204</t>
+        </is>
+      </c>
+      <c r="H64" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="2" t="n">
+        <v>63</v>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>011636</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>富国港股通策略精选混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>0.51</t>
+        </is>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>85.49</t>
+        </is>
+      </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>3.96</t>
+        </is>
+      </c>
+      <c r="G65" t="inlineStr">
+        <is>
+          <t>0.0202</t>
+        </is>
+      </c>
+      <c r="H65" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="2" t="n">
+        <v>64</v>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>006924</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>前海开源沪港深非周期性行业股票C</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>0.27</t>
+        </is>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>88.62</t>
+        </is>
+      </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>7.07</t>
+        </is>
+      </c>
+      <c r="G66" t="inlineStr">
+        <is>
+          <t>0.0191</t>
+        </is>
+      </c>
+      <c r="H66" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="2" t="n">
+        <v>65</v>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>006355</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>华宝港股通恒生中国(香港上市)25指数(LOF)C</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>0.47</t>
+        </is>
+      </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>94.45</t>
+        </is>
+      </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>4.01</t>
+        </is>
+      </c>
+      <c r="G67" t="inlineStr">
+        <is>
+          <t>0.0188</t>
+        </is>
+      </c>
+      <c r="H67" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="2" t="n">
+        <v>66</v>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>005701</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>上投摩根香港精选港股通混合</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>0.50</t>
+        </is>
+      </c>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>81.13</t>
+        </is>
+      </c>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>3.45</t>
+        </is>
+      </c>
+      <c r="G68" t="inlineStr">
+        <is>
+          <t>0.0172</t>
+        </is>
+      </c>
+      <c r="H68" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="2" t="n">
+        <v>67</v>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>005143</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>中融沪港深大消费主题灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>0.42</t>
+        </is>
+      </c>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>86.07</t>
+        </is>
+      </c>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>3.52</t>
+        </is>
+      </c>
+      <c r="G69" t="inlineStr">
+        <is>
+          <t>0.0148</t>
+        </is>
+      </c>
+      <c r="H69" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="2" t="n">
+        <v>68</v>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>008520</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>中金中证沪港深优选消费50指数C</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>0.33</t>
+        </is>
+      </c>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>92.42</t>
+        </is>
+      </c>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>4.41</t>
+        </is>
+      </c>
+      <c r="G70" t="inlineStr">
+        <is>
+          <t>0.0146</t>
+        </is>
+      </c>
+      <c r="H70" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="2" t="n">
+        <v>69</v>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>008254</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>华宝致远混合（QDII）C</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>0.17</t>
+        </is>
+      </c>
+      <c r="E71" t="inlineStr">
+        <is>
+          <t>85.18</t>
+        </is>
+      </c>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t>6.89</t>
+        </is>
+      </c>
+      <c r="G71" t="inlineStr">
+        <is>
+          <t>0.0117</t>
+        </is>
+      </c>
+      <c r="H71" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="2" t="n">
+        <v>70</v>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>006786</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>泰康中证港股通大消费主题指数A</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>0.20</t>
+        </is>
+      </c>
+      <c r="E72" t="inlineStr">
+        <is>
+          <t>90.79</t>
+        </is>
+      </c>
+      <c r="F72" t="inlineStr">
+        <is>
+          <t>5.00</t>
+        </is>
+      </c>
+      <c r="G72" t="inlineStr">
+        <is>
+          <t>0.0100</t>
+        </is>
+      </c>
+      <c r="H72" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="2" t="n">
+        <v>71</v>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>159978</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>建信中证沪港深粤港澳大湾区发展主题ETF</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>0.36</t>
+        </is>
+      </c>
+      <c r="E73" t="inlineStr">
+        <is>
+          <t>96.35</t>
+        </is>
+      </c>
+      <c r="F73" t="inlineStr">
+        <is>
+          <t>2.74</t>
+        </is>
+      </c>
+      <c r="G73" t="inlineStr">
+        <is>
+          <t>0.0099</t>
+        </is>
+      </c>
+      <c r="H73" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="2" t="n">
+        <v>72</v>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>501067</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>招商富时中国A-H50指数（LOF）A</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>0.23</t>
+        </is>
+      </c>
+      <c r="E74" t="inlineStr">
+        <is>
+          <t>94.50</t>
+        </is>
+      </c>
+      <c r="F74" t="inlineStr">
+        <is>
+          <t>2.80</t>
+        </is>
+      </c>
+      <c r="G74" t="inlineStr">
+        <is>
+          <t>0.0064</t>
+        </is>
+      </c>
+      <c r="H74" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="2" t="n">
+        <v>73</v>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>010093</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>西部利得港股通新机遇灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>0.11</t>
+        </is>
+      </c>
+      <c r="E75" t="inlineStr">
+        <is>
+          <t>81.05</t>
+        </is>
+      </c>
+      <c r="F75" t="inlineStr">
+        <is>
+          <t>3.65</t>
+        </is>
+      </c>
+      <c r="G75" t="inlineStr">
+        <is>
+          <t>0.0040</t>
+        </is>
+      </c>
+      <c r="H75" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="2" t="n">
+        <v>74</v>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>008408</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>恒生前海恒生沪深港通细分行业龙头指数C</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>0.11</t>
+        </is>
+      </c>
+      <c r="E76" t="inlineStr">
+        <is>
+          <t>93.94</t>
+        </is>
+      </c>
+      <c r="F76" t="inlineStr">
+        <is>
+          <t>3.44</t>
+        </is>
+      </c>
+      <c r="G76" t="inlineStr">
+        <is>
+          <t>0.0038</t>
+        </is>
+      </c>
+      <c r="H76" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="2" t="n">
+        <v>75</v>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>501068</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>招商富时中国A-H50指数（LOF）C</t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>0.06</t>
+        </is>
+      </c>
+      <c r="E77" t="inlineStr">
+        <is>
+          <t>94.50</t>
+        </is>
+      </c>
+      <c r="F77" t="inlineStr">
+        <is>
+          <t>2.80</t>
+        </is>
+      </c>
+      <c r="G77" t="inlineStr">
+        <is>
+          <t>0.0017</t>
+        </is>
+      </c>
+      <c r="H77" t="n">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>76</v>
+      </c>
+      <c r="D2" t="n">
+        <v>49.26</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>5</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.77</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C3" t="n">
+      <c r="C4" t="n">
         <v>25</v>
       </c>
-      <c r="D3" t="n">
+      <c r="D4" t="n">
         <v>16.83</v>
       </c>
     </row>

--- a/数据整理/stocks/港股/01211-比亚迪股份.xlsx
+++ b/数据整理/stocks/港股/01211-比亚迪股份.xlsx
@@ -9,7 +9,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -4649,7 +4650,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:H60"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4660,17 +4661,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -4680,14 +4701,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>76</v>
-      </c>
-      <c r="D2" t="n">
-        <v>49.26</v>
+          <t>005669</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>前海开源公用事业行业股票</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>258.16</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>94.53</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>5.57</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>14.3795</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="3">
@@ -4696,14 +4739,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>5</v>
-      </c>
-      <c r="D3" t="n">
-        <v>0.77</v>
+          <t>009896</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>广发港股通成长精选股票A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>27.73</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>89.63</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>7.82</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>2.1685</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="4">
@@ -4712,13 +4777,2263 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
+          <t>002121</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>广发沪港深新起点股票A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>34.56</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>91.46</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>4.91</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>1.6969</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>501311</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>嘉实恒生港股通新经济指数（LOF）A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>22.36</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>94.24</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>5.88</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>1.3148</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>011162</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>博时港股通领先趋势混合A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>23.56</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>80.83</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>4.95</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>1.1662</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>001837</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>前海开源沪港深蓝筹精选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>15.15</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>94.10</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>6.00</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.9090</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>011637</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>广发沪港深价值成长混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>12.44</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>92.96</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>5.37</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.6680</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>160322</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>华夏港股通精选股票(LOF)</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>14.19</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>84.43</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>4.00</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.5676</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>009897</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>广发港股通成长精选股票C</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>6.49</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>89.63</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>7.82</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.5075</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>006614</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>嘉实恒生港股通新经济指数（LOF）C</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>8.52</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>94.24</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>5.88</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.5010</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>513660</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>华夏沪港通恒生ETF</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>19.61</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>97.34</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>2.49</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.4883</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>008381</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>前海开源新兴产业混合</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>6.18</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>93.63</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>7.33</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.4530</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>513980</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>景顺长城中证港股通科技交易型开放式指数证券投资基金</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>5.03</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>97.36</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>7.76</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.3903</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>007368</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>浙商沪港深精选混合A</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>8.76</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>92.49</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>3.48</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.3048</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>012208</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>华夏港股前沿经济混合型证券投资基金（QDII）A</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>12.53</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>82.34</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>2.38</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.2982</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>513860</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>海富通中证港股通科技交易型开放式指数证券投资基金</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>3.87</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>95.13</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>7.35</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.2844</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>005197</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>工银瑞信沪港深精选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>7.18</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>93.54</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>3.45</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.2477</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>011163</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>博时港股通领先趋势混合C</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>4.68</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>80.83</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>4.95</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.2317</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>159747</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>南方中证香港科技交易型开放式指数证券投资基金(QDII)</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>3.07</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>100.03</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>5.70</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.1750</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>011157</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>弘毅远方港股通智选领航混合A</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>3.65</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>90.35</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>4.56</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.1664</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>860018</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>光大阳光智造混合A</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>3.95</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>90.37</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>4.15</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.1639</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>005228</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>汇添富港股通专注成长混合</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>3.64</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>80.11</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>4.35</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.1583</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>457001</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>国富亚洲机会股票 (QDII)</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>5.93</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>77.36</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>2.58</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.1530</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>860038</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>光大阳光智造混合B</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>3.23</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>90.37</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>4.15</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.1340</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>013009</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>万家港股通精选混合A</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>2.97</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>81.62</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>3.67</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.1090</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>005198</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>工银瑞信沪港深精选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>2.66</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>93.54</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>3.45</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.0918</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>006768</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>华安沪港深优选混合</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>0.84</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>93.09</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>9.04</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.0759</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>159751</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>鹏华中证港股通科技ETF</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>0.90</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>91.30</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>7.29</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.0656</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>007354</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>创金合信港股通量化股票A</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>3.84</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>91.20</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>1.68</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.0645</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>513020</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>国泰中证港股通科技ETF</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>0.76</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>91.35</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>7.38</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.0561</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>006537</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>恒生前海港股通精选混合</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>1.02</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>83.53</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>5.43</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.0554</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>001518</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>万家瑞兴灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>3.16</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>81.47</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>1.73</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.0547</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>008519</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>中金中证沪港深优选消费50指数A</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>1.17</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>92.78</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>4.65</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.0544</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>517360</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>华安中证沪港深科技100交易型开放式指数证券投资基金</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>0.72</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>93.71</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>6.41</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.0462</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>006923</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>前海开源沪港深非周期性行业股票A</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>0.54</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>93.77</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>8.14</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.0440</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>006786</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>泰康中证港股通大消费主题指数A</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>0.85</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>80.77</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>4.80</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.0408</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>007151</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>前海开源沪港深聚瑞混合</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>0.60</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>72.90</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>6.72</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.0403</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>159735</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>银华中证港股通消费主题交易型开放式指数证券投资基金</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>0.72</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>92.83</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>5.20</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0.0374</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>011158</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>弘毅远方港股通智选领航混合C</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>0.78</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>90.35</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>4.56</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>0.0356</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>010024</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>广发沪港深新起点股票C</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>0.72</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>91.46</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>4.91</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>0.0354</t>
+        </is>
+      </c>
+      <c r="H41" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>013010</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>万家港股通精选混合C</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>0.86</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>81.62</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>3.67</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>0.0316</t>
+        </is>
+      </c>
+      <c r="H42" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>513230</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>华夏中证港股通消费主题ETF</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>0.60</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>96.92</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>5.13</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>0.0308</t>
+        </is>
+      </c>
+      <c r="H43" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>006787</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>泰康中证港股通大消费主题指数C</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>0.41</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>80.77</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>4.80</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>0.0197</t>
+        </is>
+      </c>
+      <c r="H44" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>007369</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>浙商沪港深精选混合C</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>0.54</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>92.49</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>3.48</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>0.0188</t>
+        </is>
+      </c>
+      <c r="H45" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>513590</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>鹏华中证港股通消费主题交易型开放式指数证券投资基金</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>0.37</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>91.21</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>4.94</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>0.0183</t>
+        </is>
+      </c>
+      <c r="H46" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>006924</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>前海开源沪港深非周期性行业股票C</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>0.22</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>93.77</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>8.14</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>0.0179</t>
+        </is>
+      </c>
+      <c r="H47" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="2" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>011638</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>广发沪港深价值成长混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>0.33</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>92.96</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>5.37</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>0.0177</t>
+        </is>
+      </c>
+      <c r="H48" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="2" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>008520</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>中金中证沪港深优选消费50指数C</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>0.29</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>92.78</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>4.65</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>0.0135</t>
+        </is>
+      </c>
+      <c r="H49" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="2" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>008407</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>恒生前海恒生沪深港通细分行业龙头指数A</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>0.37</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>93.40</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>3.41</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>0.0126</t>
+        </is>
+      </c>
+      <c r="H50" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="2" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>012209</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>华夏港股前沿经济混合型证券投资基金（QDII）C</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>0.46</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>82.34</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>2.38</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>0.0109</t>
+        </is>
+      </c>
+      <c r="H51" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>860039</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>光大阳光智造混合C</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>0.26</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>90.37</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>4.15</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>0.0108</t>
+        </is>
+      </c>
+      <c r="H52" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="2" t="n">
+        <v>51</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>009733</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>创金合信港股通大消费精选股票A</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>0.13</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>82.28</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>7.02</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>0.0091</t>
+        </is>
+      </c>
+      <c r="H53" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="2" t="n">
+        <v>52</v>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>159978</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>建信中证沪港深粤港澳大湾区发展主题ETF</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>0.31</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>96.05</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>2.64</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>0.0082</t>
+        </is>
+      </c>
+      <c r="H54" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="2" t="n">
+        <v>53</v>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>501067</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>招商富时中国A-H50指数（LOF）A</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>0.21</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>94.63</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>3.42</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>0.0072</t>
+        </is>
+      </c>
+      <c r="H55" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="2" t="n">
+        <v>54</v>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>009734</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>创金合信港股通大消费精选股票C</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>0.07</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>82.28</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>7.02</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>0.0049</t>
+        </is>
+      </c>
+      <c r="H56" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="2" t="n">
+        <v>55</v>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>005707</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>富国港股通量化精选股票</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>0.24</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>80.43</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>1.87</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>0.0045</t>
+        </is>
+      </c>
+      <c r="H57" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="2" t="n">
+        <v>56</v>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>007357</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>创金合信港股通量化股票C</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>0.26</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>91.20</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>1.68</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>0.0044</t>
+        </is>
+      </c>
+      <c r="H58" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="2" t="n">
+        <v>57</v>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>008408</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>恒生前海恒生沪深港通细分行业龙头指数C</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>0.08</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>93.40</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>3.41</t>
+        </is>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>0.0027</t>
+        </is>
+      </c>
+      <c r="H59" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="2" t="n">
+        <v>58</v>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>501068</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>招商富时中国A-H50指数（LOF）C</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>0.05</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>94.63</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>3.42</t>
+        </is>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>0.0017</t>
+        </is>
+      </c>
+      <c r="H60" t="n">
+        <v>6</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>59</v>
+      </c>
+      <c r="D2" t="n">
+        <v>28.68</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>76</v>
+      </c>
+      <c r="D3" t="n">
+        <v>49.26</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>5</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.77</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C4" t="n">
+      <c r="C5" t="n">
         <v>25</v>
       </c>
-      <c r="D4" t="n">
+      <c r="D5" t="n">
         <v>16.83</v>
       </c>
     </row>

--- a/数据整理/stocks/港股/01211-比亚迪股份.xlsx
+++ b/数据整理/stocks/港股/01211-比亚迪股份.xlsx
@@ -10,7 +10,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -6948,7 +6949,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:H96"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -6959,17 +6960,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -6979,14 +7000,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>59</v>
-      </c>
-      <c r="D2" t="n">
-        <v>28.68</v>
+          <t>005669</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>前海开源公用事业行业股票</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>224.66</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>93.65</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>5.65</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>12.6933</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="3">
@@ -6995,14 +7038,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>76</v>
-      </c>
-      <c r="D3" t="n">
-        <v>49.26</v>
+          <t>510900</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>易方达恒生国企(QDII-ETF)</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>104.16</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>96.98</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.48</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>3.6248</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="4">
@@ -7011,14 +7076,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>5</v>
-      </c>
-      <c r="D4" t="n">
-        <v>0.77</v>
+          <t>501311</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>嘉实恒生港股通新经济指数（LOF）A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>33.03</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>94.42</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>8.02</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>2.6490</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="5">
@@ -7027,13 +7114,3605 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
+          <t>011162</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>博时港股通领先趋势混合A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>25.99</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>82.15</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>6.26</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>1.6270</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>001837</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>前海开源沪港深蓝筹精选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>15.68</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>92.15</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>8.69</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>1.3626</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>006614</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>嘉实恒生港股通新经济指数（LOF）C</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>14.96</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>94.42</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>8.02</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>1.1998</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>513980</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>景顺长城中证港股通科技交易型开放式指数证券投资基金</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>12.34</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>95.49</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>8.47</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>1.0452</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>001605</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>富兰克林国海沪港深成长精选股票</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>34.60</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>89.03</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>2.74</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.9480</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>009896</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>广发港股通成长精选股票A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>24.43</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>85.34</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>3.84</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.9381</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>160322</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>华夏港股通精选股票(LOF)</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>17.75</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>85.87</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>4.52</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.8023</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>012884</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>华夏港股通精选股票(LOF) C</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>17.75</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>85.87</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>4.52</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.8023</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>513660</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>华夏沪港通恒生ETF</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>22.17</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>96.96</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>3.39</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.7516</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>000934</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>国富大中华精选混合QDII</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>25.58</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>86.39</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>2.79</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.7137</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>006370</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>国富大中华精选混合QDII美元</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>25.58</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>86.39</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>2.79</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.7137</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>012208</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>华夏港股前沿经济混合型证券投资基金（QDII）A</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>13.04</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>92.94</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>4.35</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.5672</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>009846</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>富兰克林国海港股通远见价值混合</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>16.08</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>85.60</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>3.24</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.5210</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>008381</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>前海开源新兴产业混合</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>6.07</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>87.27</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>8.48</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.5147</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>513860</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>海富通中证港股通科技交易型开放式指数证券投资基金</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>4.68</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>97.60</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>8.87</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.4151</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>014729</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>前海开源新兴产业混合C</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>4.38</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>87.27</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>8.48</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.3714</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>007368</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>浙商沪港深精选混合A</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>8.29</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>92.42</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>4.25</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.3523</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>006039</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>富兰克林国海估值优势灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>12.47</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>91.21</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>2.82</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.3517</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>005197</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>工银瑞信沪港深精选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>6.93</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>91.45</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>4.77</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.3306</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>011163</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>博时港股通领先趋势混合C</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>5.13</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>82.15</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>6.26</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.3211</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>009897</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>广发港股通成长精选股票C</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>7.50</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>85.34</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>3.84</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.2880</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>159747</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>南方中证香港科技交易型开放式指数证券投资基金(QDII)</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>3.37</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>99.61</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>6.53</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.2201</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>005228</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>汇添富港股通专注成长混合</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>5.12</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>87.58</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>4.06</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.2079</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>159850</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>华夏恒生中国企业ETF（QDII）</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>5.62</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>96.12</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>3.44</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.1933</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>860018</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>光大阳光智造混合A</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>3.98</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>84.94</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>4.72</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.1879</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>457001</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>国富亚洲机会股票 (QDII)</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>5.66</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>87.52</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>3.07</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.1738</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>501301</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>华宝港股通恒生中国(香港上市)25指数(LOF)A</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>3.33</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>94.46</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>5.21</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.1735</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>001581</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>华安沪港深通精选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>5.49</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>85.41</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>3.13</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.1718</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>159960</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>平安港股通恒生中国企业ETF</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>4.28</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>94.30</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>3.99</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.1708</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>860038</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>光大阳光智造混合B</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>3.46</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>84.94</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>4.72</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.1633</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>014746</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>贝莱德港股通远景视野混合A</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>4.77</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>87.98</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>3.27</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.1560</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>513020</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>国泰中证港股通科技ETF</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>1.71</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>96.34</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>8.60</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.1471</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>513600</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>南方恒生ETF</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>5.79</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>98.88</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>2.27</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.1314</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>013009</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>万家港股通精选混合A</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>3.07</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>93.57</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>3.94</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.1210</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>513320</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>易方达恒生港股通新经济ETF</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>1.32</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>95.12</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>8.15</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0.1076</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>159954</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>南方恒生中国企业ETF</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>2.75</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>101.59</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>3.62</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>0.0996</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>007354</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>创金合信港股通量化股票A</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>3.83</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>90.56</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>2.56</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>0.0980</t>
+        </is>
+      </c>
+      <c r="H41" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>006768</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>华安沪港深优选混合</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>0.97</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>93.63</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>9.82</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>0.0953</t>
+        </is>
+      </c>
+      <c r="H42" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>160717</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>嘉实恒生中国企业指数(QDII-LOF)</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>2.76</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>93.97</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>3.36</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>0.0927</t>
+        </is>
+      </c>
+      <c r="H43" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>005198</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>工银瑞信沪港深精选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>1.91</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>91.45</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>4.77</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>0.0911</t>
+        </is>
+      </c>
+      <c r="H44" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>006537</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>恒生前海港股通精选混合</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>1.28</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>88.31</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>6.94</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>0.0888</t>
+        </is>
+      </c>
+      <c r="H45" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>159751</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>鹏华中证港股通科技ETF</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>0.98</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>92.61</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>8.48</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>0.0831</t>
+        </is>
+      </c>
+      <c r="H46" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>001518</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>万家瑞兴灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>3.25</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>83.79</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>2.48</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>0.0806</t>
+        </is>
+      </c>
+      <c r="H47" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="2" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>161831</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>银华恒生国企指数（QDII-LOF）</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>2.37</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>85.52</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>3.29</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>0.0780</t>
+        </is>
+      </c>
+      <c r="H48" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="2" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>006355</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>华宝港股通恒生中国(香港上市)25指数(LOF)C</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>1.36</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>94.46</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>5.21</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>0.0709</t>
+        </is>
+      </c>
+      <c r="H49" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="2" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>014747</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>贝莱德港股通远景视野混合C</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>2.10</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>87.98</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>3.27</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>0.0687</t>
+        </is>
+      </c>
+      <c r="H50" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="2" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>008519</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>中金中证沪港深优选消费50指数A</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>1.39</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>93.25</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>4.92</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>0.0684</t>
+        </is>
+      </c>
+      <c r="H51" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>012924</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>华夏新时代灵活配置混合（QDII）美元现汇</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>2.57</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>80.91</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>2.45</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>0.0630</t>
+        </is>
+      </c>
+      <c r="H52" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="2" t="n">
+        <v>51</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>012925</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>华夏新时代灵活配置混合（QDII）美元现钞</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>2.57</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>80.91</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>2.45</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>0.0630</t>
+        </is>
+      </c>
+      <c r="H53" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="2" t="n">
+        <v>52</v>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>007151</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>前海开源沪港深聚瑞混合</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>0.66</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>85.46</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>9.19</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>0.0607</t>
+        </is>
+      </c>
+      <c r="H54" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="2" t="n">
+        <v>53</v>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>006786</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>泰康中证港股通大消费主题指数A</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>0.93</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>94.28</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>6.51</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>0.0605</t>
+        </is>
+      </c>
+      <c r="H55" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="2" t="n">
+        <v>54</v>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>517360</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>华安中证沪港深科技100交易型开放式指数证券投资基金</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>0.71</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>95.02</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>8.46</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>0.0601</t>
+        </is>
+      </c>
+      <c r="H56" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="2" t="n">
+        <v>55</v>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>006923</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>前海开源沪港深非周期性行业股票A</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>0.62</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>89.61</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>8.93</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>0.0554</t>
+        </is>
+      </c>
+      <c r="H57" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="2" t="n">
+        <v>56</v>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>159735</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>银华中证港股通消费主题交易型开放式指数证券投资基金</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>0.95</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>93.22</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>5.77</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>0.0548</t>
+        </is>
+      </c>
+      <c r="H58" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="2" t="n">
+        <v>57</v>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>183001</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>银华全球核心优选(QDII-FOF)</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>0.61</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>20.70</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>8.82</t>
+        </is>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>0.0538</t>
+        </is>
+      </c>
+      <c r="H59" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="2" t="n">
+        <v>58</v>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>007132</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>长城港股通价值精选多策略混合</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>0.97</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>86.82</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>4.96</t>
+        </is>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>0.0481</t>
+        </is>
+      </c>
+      <c r="H60" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="2" t="n">
+        <v>59</v>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>009017</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>银华港股通精选股票</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>0.99</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>88.36</t>
+        </is>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>4.52</t>
+        </is>
+      </c>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>0.0447</t>
+        </is>
+      </c>
+      <c r="H61" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="2" t="n">
+        <v>60</v>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>513230</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>华夏中证港股通消费主题ETF</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>0.62</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>96.95</t>
+        </is>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>5.85</t>
+        </is>
+      </c>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t>0.0363</t>
+        </is>
+      </c>
+      <c r="H62" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="2" t="n">
+        <v>61</v>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>013010</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>万家港股通精选混合C</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>0.86</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>93.57</t>
+        </is>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>3.94</t>
+        </is>
+      </c>
+      <c r="G63" t="inlineStr">
+        <is>
+          <t>0.0339</t>
+        </is>
+      </c>
+      <c r="H63" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="2" t="n">
+        <v>62</v>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>005142</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>中融沪港深大消费主题灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>0.67</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>84.21</t>
+        </is>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>4.63</t>
+        </is>
+      </c>
+      <c r="G64" t="inlineStr">
+        <is>
+          <t>0.0310</t>
+        </is>
+      </c>
+      <c r="H64" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="2" t="n">
+        <v>63</v>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>006787</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>泰康中证港股通大消费主题指数C</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>0.40</t>
+        </is>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>94.28</t>
+        </is>
+      </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>6.51</t>
+        </is>
+      </c>
+      <c r="G65" t="inlineStr">
+        <is>
+          <t>0.0260</t>
+        </is>
+      </c>
+      <c r="H65" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="2" t="n">
+        <v>64</v>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>006924</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>前海开源沪港深非周期性行业股票C</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>0.28</t>
+        </is>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>89.61</t>
+        </is>
+      </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>8.93</t>
+        </is>
+      </c>
+      <c r="G66" t="inlineStr">
+        <is>
+          <t>0.0250</t>
+        </is>
+      </c>
+      <c r="H66" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="2" t="n">
+        <v>65</v>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>513590</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>鹏华中证港股通消费主题交易型开放式指数证券投资基金</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>0.39</t>
+        </is>
+      </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>93.32</t>
+        </is>
+      </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>6.12</t>
+        </is>
+      </c>
+      <c r="G67" t="inlineStr">
+        <is>
+          <t>0.0239</t>
+        </is>
+      </c>
+      <c r="H67" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="2" t="n">
+        <v>66</v>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>005143</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>中融沪港深大消费主题灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>0.50</t>
+        </is>
+      </c>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>84.21</t>
+        </is>
+      </c>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>4.63</t>
+        </is>
+      </c>
+      <c r="G68" t="inlineStr">
+        <is>
+          <t>0.0232</t>
+        </is>
+      </c>
+      <c r="H68" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="2" t="n">
+        <v>67</v>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>000927</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>博时大中华亚太精选股票(QDII) - 美元现汇</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>0.31</t>
+        </is>
+      </c>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>87.88</t>
+        </is>
+      </c>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>7.02</t>
+        </is>
+      </c>
+      <c r="G69" t="inlineStr">
+        <is>
+          <t>0.0218</t>
+        </is>
+      </c>
+      <c r="H69" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="2" t="n">
+        <v>68</v>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>050015</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>博时大中华亚太精选股票(QDII) -人民币</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>0.31</t>
+        </is>
+      </c>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>87.88</t>
+        </is>
+      </c>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>7.02</t>
+        </is>
+      </c>
+      <c r="G70" t="inlineStr">
+        <is>
+          <t>0.0218</t>
+        </is>
+      </c>
+      <c r="H70" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="2" t="n">
+        <v>69</v>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>012209</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>华夏港股前沿经济混合型证券投资基金（QDII）C</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>0.46</t>
+        </is>
+      </c>
+      <c r="E71" t="inlineStr">
+        <is>
+          <t>92.94</t>
+        </is>
+      </c>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t>4.35</t>
+        </is>
+      </c>
+      <c r="G71" t="inlineStr">
+        <is>
+          <t>0.0200</t>
+        </is>
+      </c>
+      <c r="H71" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="2" t="n">
+        <v>70</v>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>005701</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>上投摩根香港精选港股通混合</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>0.49</t>
+        </is>
+      </c>
+      <c r="E72" t="inlineStr">
+        <is>
+          <t>86.58</t>
+        </is>
+      </c>
+      <c r="F72" t="inlineStr">
+        <is>
+          <t>3.58</t>
+        </is>
+      </c>
+      <c r="G72" t="inlineStr">
+        <is>
+          <t>0.0175</t>
+        </is>
+      </c>
+      <c r="H72" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="2" t="n">
+        <v>71</v>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>008407</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>恒生前海恒生沪深港通细分行业龙头指数A</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>0.37</t>
+        </is>
+      </c>
+      <c r="E73" t="inlineStr">
+        <is>
+          <t>93.99</t>
+        </is>
+      </c>
+      <c r="F73" t="inlineStr">
+        <is>
+          <t>4.70</t>
+        </is>
+      </c>
+      <c r="G73" t="inlineStr">
+        <is>
+          <t>0.0174</t>
+        </is>
+      </c>
+      <c r="H73" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="2" t="n">
+        <v>72</v>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>007369</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>浙商沪港深精选混合C</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>0.41</t>
+        </is>
+      </c>
+      <c r="E74" t="inlineStr">
+        <is>
+          <t>92.42</t>
+        </is>
+      </c>
+      <c r="F74" t="inlineStr">
+        <is>
+          <t>4.25</t>
+        </is>
+      </c>
+      <c r="G74" t="inlineStr">
+        <is>
+          <t>0.0174</t>
+        </is>
+      </c>
+      <c r="H74" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="2" t="n">
+        <v>73</v>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>008520</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>中金中证沪港深优选消费50指数C</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>0.33</t>
+        </is>
+      </c>
+      <c r="E75" t="inlineStr">
+        <is>
+          <t>93.25</t>
+        </is>
+      </c>
+      <c r="F75" t="inlineStr">
+        <is>
+          <t>4.92</t>
+        </is>
+      </c>
+      <c r="G75" t="inlineStr">
+        <is>
+          <t>0.0162</t>
+        </is>
+      </c>
+      <c r="H75" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="2" t="n">
+        <v>74</v>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>015205</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>银华全球新能源车量化优选股票（QDII）C</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>0.30</t>
+        </is>
+      </c>
+      <c r="E76" t="inlineStr">
+        <is>
+          <t>84.34</t>
+        </is>
+      </c>
+      <c r="F76" t="inlineStr">
+        <is>
+          <t>4.95</t>
+        </is>
+      </c>
+      <c r="G76" t="inlineStr">
+        <is>
+          <t>0.0148</t>
+        </is>
+      </c>
+      <c r="H76" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="2" t="n">
+        <v>75</v>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>860039</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>光大阳光智造混合C</t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>0.28</t>
+        </is>
+      </c>
+      <c r="E77" t="inlineStr">
+        <is>
+          <t>84.94</t>
+        </is>
+      </c>
+      <c r="F77" t="inlineStr">
+        <is>
+          <t>4.72</t>
+        </is>
+      </c>
+      <c r="G77" t="inlineStr">
+        <is>
+          <t>0.0132</t>
+        </is>
+      </c>
+      <c r="H77" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="2" t="n">
+        <v>76</v>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>159978</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>建信中证沪港深粤港澳大湾区发展主题ETF</t>
+        </is>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>0.33</t>
+        </is>
+      </c>
+      <c r="E78" t="inlineStr">
+        <is>
+          <t>94.66</t>
+        </is>
+      </c>
+      <c r="F78" t="inlineStr">
+        <is>
+          <t>3.64</t>
+        </is>
+      </c>
+      <c r="G78" t="inlineStr">
+        <is>
+          <t>0.0120</t>
+        </is>
+      </c>
+      <c r="H78" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="2" t="n">
+        <v>77</v>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>015204</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>银华全球新能源车量化优选股票（QDII）A</t>
+        </is>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>0.22</t>
+        </is>
+      </c>
+      <c r="E79" t="inlineStr">
+        <is>
+          <t>84.34</t>
+        </is>
+      </c>
+      <c r="F79" t="inlineStr">
+        <is>
+          <t>4.95</t>
+        </is>
+      </c>
+      <c r="G79" t="inlineStr">
+        <is>
+          <t>0.0109</t>
+        </is>
+      </c>
+      <c r="H79" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="2" t="n">
+        <v>78</v>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>501067</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>招商富时中国A-H50指数（LOF）A</t>
+        </is>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t>0.25</t>
+        </is>
+      </c>
+      <c r="E80" t="inlineStr">
+        <is>
+          <t>94.41</t>
+        </is>
+      </c>
+      <c r="F80" t="inlineStr">
+        <is>
+          <t>3.77</t>
+        </is>
+      </c>
+      <c r="G80" t="inlineStr">
+        <is>
+          <t>0.0094</t>
+        </is>
+      </c>
+      <c r="H80" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" s="2" t="n">
+        <v>79</v>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>012315</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>创金合信港股通成长股票型发起式证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t>0.10</t>
+        </is>
+      </c>
+      <c r="E81" t="inlineStr">
+        <is>
+          <t>82.80</t>
+        </is>
+      </c>
+      <c r="F81" t="inlineStr">
+        <is>
+          <t>8.74</t>
+        </is>
+      </c>
+      <c r="G81" t="inlineStr">
+        <is>
+          <t>0.0087</t>
+        </is>
+      </c>
+      <c r="H81" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" s="2" t="n">
+        <v>80</v>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>012316</t>
+        </is>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>创金合信港股通成长股票型发起式证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D82" t="inlineStr">
+        <is>
+          <t>0.10</t>
+        </is>
+      </c>
+      <c r="E82" t="inlineStr">
+        <is>
+          <t>82.80</t>
+        </is>
+      </c>
+      <c r="F82" t="inlineStr">
+        <is>
+          <t>8.74</t>
+        </is>
+      </c>
+      <c r="G82" t="inlineStr">
+        <is>
+          <t>0.0087</t>
+        </is>
+      </c>
+      <c r="H82" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" s="2" t="n">
+        <v>81</v>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>513680</t>
+        </is>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>建信港股通恒生中国企业ETF</t>
+        </is>
+      </c>
+      <c r="D83" t="inlineStr">
+        <is>
+          <t>0.21</t>
+        </is>
+      </c>
+      <c r="E83" t="inlineStr">
+        <is>
+          <t>93.20</t>
+        </is>
+      </c>
+      <c r="F83" t="inlineStr">
+        <is>
+          <t>3.76</t>
+        </is>
+      </c>
+      <c r="G83" t="inlineStr">
+        <is>
+          <t>0.0079</t>
+        </is>
+      </c>
+      <c r="H83" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" s="2" t="n">
+        <v>82</v>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>012711</t>
+        </is>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>前海开源沪港深蓝筹精选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D84" t="inlineStr">
+        <is>
+          <t>0.08</t>
+        </is>
+      </c>
+      <c r="E84" t="inlineStr">
+        <is>
+          <t>92.15</t>
+        </is>
+      </c>
+      <c r="F84" t="inlineStr">
+        <is>
+          <t>8.69</t>
+        </is>
+      </c>
+      <c r="G84" t="inlineStr">
+        <is>
+          <t>0.0070</t>
+        </is>
+      </c>
+      <c r="H84" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" s="2" t="n">
+        <v>83</v>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>006106</t>
+        </is>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>景顺长城量化港股通股票</t>
+        </is>
+      </c>
+      <c r="D85" t="inlineStr">
+        <is>
+          <t>0.36</t>
+        </is>
+      </c>
+      <c r="E85" t="inlineStr">
+        <is>
+          <t>85.25</t>
+        </is>
+      </c>
+      <c r="F85" t="inlineStr">
+        <is>
+          <t>1.88</t>
+        </is>
+      </c>
+      <c r="G85" t="inlineStr">
+        <is>
+          <t>0.0068</t>
+        </is>
+      </c>
+      <c r="H85" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" s="2" t="n">
+        <v>84</v>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>005707</t>
+        </is>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>富国港股通量化精选股票</t>
+        </is>
+      </c>
+      <c r="D86" t="inlineStr">
+        <is>
+          <t>0.25</t>
+        </is>
+      </c>
+      <c r="E86" t="inlineStr">
+        <is>
+          <t>84.92</t>
+        </is>
+      </c>
+      <c r="F86" t="inlineStr">
+        <is>
+          <t>2.64</t>
+        </is>
+      </c>
+      <c r="G86" t="inlineStr">
+        <is>
+          <t>0.0066</t>
+        </is>
+      </c>
+      <c r="H86" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" s="2" t="n">
+        <v>85</v>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>007357</t>
+        </is>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>创金合信港股通量化股票C</t>
+        </is>
+      </c>
+      <c r="D87" t="inlineStr">
+        <is>
+          <t>0.25</t>
+        </is>
+      </c>
+      <c r="E87" t="inlineStr">
+        <is>
+          <t>90.56</t>
+        </is>
+      </c>
+      <c r="F87" t="inlineStr">
+        <is>
+          <t>2.56</t>
+        </is>
+      </c>
+      <c r="G87" t="inlineStr">
+        <is>
+          <t>0.0064</t>
+        </is>
+      </c>
+      <c r="H87" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" s="2" t="n">
+        <v>86</v>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>009734</t>
+        </is>
+      </c>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t>创金合信港股通大消费精选股票C</t>
+        </is>
+      </c>
+      <c r="D88" t="inlineStr">
+        <is>
+          <t>0.08</t>
+        </is>
+      </c>
+      <c r="E88" t="inlineStr">
+        <is>
+          <t>83.41</t>
+        </is>
+      </c>
+      <c r="F88" t="inlineStr">
+        <is>
+          <t>7.13</t>
+        </is>
+      </c>
+      <c r="G88" t="inlineStr">
+        <is>
+          <t>0.0057</t>
+        </is>
+      </c>
+      <c r="H88" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" s="2" t="n">
+        <v>87</v>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>501309</t>
+        </is>
+      </c>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>国泰恒生港股通指数（LOF）</t>
+        </is>
+      </c>
+      <c r="D89" t="inlineStr">
+        <is>
+          <t>0.34</t>
+        </is>
+      </c>
+      <c r="E89" t="inlineStr">
+        <is>
+          <t>93.11</t>
+        </is>
+      </c>
+      <c r="F89" t="inlineStr">
+        <is>
+          <t>1.58</t>
+        </is>
+      </c>
+      <c r="G89" t="inlineStr">
+        <is>
+          <t>0.0054</t>
+        </is>
+      </c>
+      <c r="H89" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" s="2" t="n">
+        <v>88</v>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>009733</t>
+        </is>
+      </c>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t>创金合信港股通大消费精选股票A</t>
+        </is>
+      </c>
+      <c r="D90" t="inlineStr">
+        <is>
+          <t>0.07</t>
+        </is>
+      </c>
+      <c r="E90" t="inlineStr">
+        <is>
+          <t>83.41</t>
+        </is>
+      </c>
+      <c r="F90" t="inlineStr">
+        <is>
+          <t>7.13</t>
+        </is>
+      </c>
+      <c r="G90" t="inlineStr">
+        <is>
+          <t>0.0050</t>
+        </is>
+      </c>
+      <c r="H90" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" s="2" t="n">
+        <v>89</v>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>008408</t>
+        </is>
+      </c>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t>恒生前海恒生沪深港通细分行业龙头指数C</t>
+        </is>
+      </c>
+      <c r="D91" t="inlineStr">
+        <is>
+          <t>0.06</t>
+        </is>
+      </c>
+      <c r="E91" t="inlineStr">
+        <is>
+          <t>93.99</t>
+        </is>
+      </c>
+      <c r="F91" t="inlineStr">
+        <is>
+          <t>4.70</t>
+        </is>
+      </c>
+      <c r="G91" t="inlineStr">
+        <is>
+          <t>0.0028</t>
+        </is>
+      </c>
+      <c r="H91" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" s="2" t="n">
+        <v>90</v>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>501068</t>
+        </is>
+      </c>
+      <c r="C92" t="inlineStr">
+        <is>
+          <t>招商富时中国A-H50指数（LOF）C</t>
+        </is>
+      </c>
+      <c r="D92" t="inlineStr">
+        <is>
+          <t>0.06</t>
+        </is>
+      </c>
+      <c r="E92" t="inlineStr">
+        <is>
+          <t>94.41</t>
+        </is>
+      </c>
+      <c r="F92" t="inlineStr">
+        <is>
+          <t>3.77</t>
+        </is>
+      </c>
+      <c r="G92" t="inlineStr">
+        <is>
+          <t>0.0023</t>
+        </is>
+      </c>
+      <c r="H92" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" s="2" t="n">
+        <v>91</v>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>167302</t>
+        </is>
+      </c>
+      <c r="C93" t="inlineStr">
+        <is>
+          <t>方正富邦恒生沪深港通大湾区综合指数（LOF）</t>
+        </is>
+      </c>
+      <c r="D93" t="inlineStr">
+        <is>
+          <t>0.07</t>
+        </is>
+      </c>
+      <c r="E93" t="inlineStr">
+        <is>
+          <t>93.05</t>
+        </is>
+      </c>
+      <c r="F93" t="inlineStr">
+        <is>
+          <t>1.83</t>
+        </is>
+      </c>
+      <c r="G93" t="inlineStr">
+        <is>
+          <t>0.0013</t>
+        </is>
+      </c>
+      <c r="H93" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" s="2" t="n">
+        <v>92</v>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>014052</t>
+        </is>
+      </c>
+      <c r="C94" t="inlineStr">
+        <is>
+          <t>银华港股通精选股票C</t>
+        </is>
+      </c>
+      <c r="D94" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="E94" t="inlineStr">
+        <is>
+          <t>88.36</t>
+        </is>
+      </c>
+      <c r="F94" t="inlineStr">
+        <is>
+          <t>4.52</t>
+        </is>
+      </c>
+      <c r="G94" t="inlineStr">
+        <is>
+          <t>0.0009</t>
+        </is>
+      </c>
+      <c r="H94" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" s="2" t="n">
+        <v>93</v>
+      </c>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>014163</t>
+        </is>
+      </c>
+      <c r="C95" t="inlineStr">
+        <is>
+          <t>富国港股通量化精选股票C</t>
+        </is>
+      </c>
+      <c r="D95" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E95" t="inlineStr">
+        <is>
+          <t>84.92</t>
+        </is>
+      </c>
+      <c r="F95" t="inlineStr">
+        <is>
+          <t>2.64</t>
+        </is>
+      </c>
+      <c r="G95" t="n">
+        <v>0</v>
+      </c>
+      <c r="H95" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" s="2" t="n">
+        <v>94</v>
+      </c>
+      <c r="B96" t="inlineStr">
+        <is>
+          <t>015390</t>
+        </is>
+      </c>
+      <c r="C96" t="inlineStr">
+        <is>
+          <t>万家瑞兴灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D96" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E96" t="inlineStr">
+        <is>
+          <t>83.79</t>
+        </is>
+      </c>
+      <c r="F96" t="inlineStr">
+        <is>
+          <t>2.48</t>
+        </is>
+      </c>
+      <c r="G96" t="n">
+        <v>0</v>
+      </c>
+      <c r="H96" t="n">
+        <v>6</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q2</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>95</v>
+      </c>
+      <c r="D2" t="n">
+        <v>38.28</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>59</v>
+      </c>
+      <c r="D3" t="n">
+        <v>28.68</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>76</v>
+      </c>
+      <c r="D4" t="n">
+        <v>49.26</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>5</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.77</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C5" t="n">
+      <c r="C6" t="n">
         <v>25</v>
       </c>
-      <c r="D5" t="n">
+      <c r="D6" t="n">
         <v>16.83</v>
       </c>
     </row>

--- a/数据整理/stocks/港股/01211-比亚迪股份.xlsx
+++ b/数据整理/stocks/港股/01211-比亚迪股份.xlsx
@@ -7,11 +7,12 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="7" state="visible" r:id="rId7"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -455,7 +456,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:D7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -486,14 +487,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>95</v>
+        <v>83</v>
       </c>
       <c r="D2" t="n">
-        <v>38.28</v>
+        <v>44.34</v>
       </c>
     </row>
     <row r="3">
@@ -502,14 +503,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>59</v>
+        <v>95</v>
       </c>
       <c r="D3" t="n">
-        <v>28.68</v>
+        <v>38.28</v>
       </c>
     </row>
     <row r="4">
@@ -518,14 +519,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>76</v>
+        <v>59</v>
       </c>
       <c r="D4" t="n">
-        <v>49.26</v>
+        <v>28.68</v>
       </c>
     </row>
     <row r="5">
@@ -534,14 +535,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>5</v>
+        <v>76</v>
       </c>
       <c r="D5" t="n">
-        <v>0.77</v>
+        <v>49.26</v>
       </c>
     </row>
     <row r="6">
@@ -550,13 +551,29 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>5</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0.77</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C6" t="n">
+      <c r="C7" t="n">
         <v>25</v>
       </c>
-      <c r="D6" t="n">
+      <c r="D7" t="n">
         <v>16.83</v>
       </c>
     </row>
@@ -566,6 +583,3214 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H84"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>005669</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>前海开源公用事业行业股票</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>168.24</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>90.44</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>5.35</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>9.0008</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>010730</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>银华心佳两年持有期混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>108.31</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>94.37</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>7.66</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>8.2965</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>005794</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>银华心怡灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>105.81</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>93.74</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>7.71</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>8.1580</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>510900</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>易方达恒生国企（QDII-ETF）</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>81.42</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>95.82</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>2.68</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>2.1821</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>008954</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>安信价值回报三年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>29.83</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>90.84</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>6.13</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>1.8286</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>012346</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>易方达港股通成长混合A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>20.23</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>85.52</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>6.51</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>1.3170</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>014585</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>银华心兴三年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>16.87</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>94.26</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>7.75</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>1.3074</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>513980</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>景顺长城中证港股通科技ETF</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>13.30</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>98.24</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>7.99</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>1.0627</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>501311</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>嘉实恒生港股通新经济指数（LOF）A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>15.36</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>94.00</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>6.64</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>1.0199</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>012892</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>安信优质企业三年持有混合A</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>14.77</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>90.16</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>6.34</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.9364</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>006614</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>嘉实恒生港股通新经济指数（LOF）C</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>14.03</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>94.00</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>6.64</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.9316</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>001837</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>前海开源沪港深蓝筹精选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>11.54</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>92.76</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>8.02</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.9255</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>011162</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>博时港股通领先趋势混合A</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>15.21</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>90.30</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>5.60</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.8518</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>008381</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>前海开源新兴产业混合A</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>7.73</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>93.97</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>6.97</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.5388</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>513660</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>华夏沪港通恒生ETF</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>19.23</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>96.99</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>2.73</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.5250</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>012893</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>安信优质企业三年持有混合C</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>6.68</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>90.16</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>6.34</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.4235</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>014043</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>银华心怡灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>5.48</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>93.74</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>7.71</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.4225</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>012347</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>易方达港股通成长混合C</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>6.17</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>85.52</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>6.51</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.4017</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>007291</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>汇丰晋信港股通双核策略混合</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>6.17</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>94.56</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>6.38</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.3936</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>012208</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>华夏港股前沿经济混合（QDII）A</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>9.67</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>89.48</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>3.55</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.3433</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>513860</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>海富通中证港股通科技ETF</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>3.67</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>95.72</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>8.00</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.2936</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>002332</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>汇丰晋信沪港深股票A</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>5.45</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>94.22</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>4.10</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.2234</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>011163</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>博时港股通领先趋势混合C</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>3.82</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>90.30</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>5.60</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.2139</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>014586</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>银华心兴三年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>2.61</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>94.26</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>7.75</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.2023</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>005197</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>工银瑞信沪港深精选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>4.01</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>94.39</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>4.31</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.1728</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>159747</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>南方中证香港科技ETF（QDII）</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>2.92</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>99.57</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>5.61</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.1638</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>014919</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>银华心选一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>8.02</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>92.42</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>1.78</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.1428</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>513150</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>华泰柏瑞中证港股通科技ETF</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>1.88</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>96.19</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>7.57</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.1423</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>159954</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>南方恒生中国企业ETF</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>4.97</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>99.36</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>2.81</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.1397</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>513020</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>国泰中证港股通科技ETF</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>1.81</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>94.40</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>7.59</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.1374</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>159850</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>华夏恒生中国企业ETF（QDII）</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>4.84</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>93.33</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>2.65</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.1283</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>159960</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>平安港股通恒生中国企业ETF</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>3.61</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>94.89</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>3.16</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.1141</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>517960</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>上投摩根中证沪港深科技100ETF</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>1.62</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>93.51</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>6.33</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.1025</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>501301</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>华宝香港大盘（LOF）A</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>2.06</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>93.77</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>4.04</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.0832</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>014920</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>银华心选一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>3.62</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>92.42</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>1.78</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.0644</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>160717</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>嘉实恒生中国企业指数（QDII-LOF）</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>2.42</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>94.01</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>2.62</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.0634</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>159751</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>鹏华中证港股通科技ETF</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>0.77</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>90.66</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>7.34</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.0565</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>007132</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>长城港股通价值精选多策略混合</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>0.72</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>80.94</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>7.79</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0.0561</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>009017</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>银华港股通精选股票A</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>0.80</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>80.26</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>6.57</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>0.0526</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>005250</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>银华估值优势混合</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>1.92</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>89.84</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>2.57</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>0.0493</t>
+        </is>
+      </c>
+      <c r="H41" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>006768</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>华安沪港深优选混合</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>0.72</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>93.08</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>6.60</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>0.0475</t>
+        </is>
+      </c>
+      <c r="H42" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>006355</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>华宝香港大盘（LOF）C</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>1.16</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>93.77</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>4.04</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>0.0469</t>
+        </is>
+      </c>
+      <c r="H43" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>005198</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>工银瑞信沪港深精选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>1.01</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>94.39</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>4.31</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>0.0435</t>
+        </is>
+      </c>
+      <c r="H44" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>014729</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>前海开源新兴产业混合C</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>0.60</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>93.97</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>6.97</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>0.0418</t>
+        </is>
+      </c>
+      <c r="H45" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>517360</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>华安中证沪港深科技100ETF</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>0.59</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>94.47</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>6.76</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>0.0399</t>
+        </is>
+      </c>
+      <c r="H46" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>007151</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>前海开源沪港深聚瑞混合</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>0.53</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>82.80</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>7.41</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>0.0393</t>
+        </is>
+      </c>
+      <c r="H47" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="2" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>513960</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>博时港股通消费ETF</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>0.79</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>97.92</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>4.88</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>0.0386</t>
+        </is>
+      </c>
+      <c r="H48" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="2" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>006787</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>泰康中证港股通大消费主题指数C</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>0.80</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>87.17</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>4.77</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>0.0382</t>
+        </is>
+      </c>
+      <c r="H49" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="2" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>159750</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>招商中证香港科技ETF（QDII）</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>0.69</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>98.87</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>5.49</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>0.0379</t>
+        </is>
+      </c>
+      <c r="H50" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="2" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>159735</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>银华中证港股通消费主题ETF</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>0.75</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>92.71</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>4.69</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>0.0352</t>
+        </is>
+      </c>
+      <c r="H51" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>003243</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>上投摩根中国世纪灵活配置混合人民币份额（QDII）</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>1.24</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>85.58</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>2.83</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>0.0351</t>
+        </is>
+      </c>
+      <c r="H52" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="2" t="n">
+        <v>51</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>003244</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>上投摩根中国世纪灵活配置混合美元现钞（QDII）</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>1.24</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>85.58</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>2.83</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>0.0351</t>
+        </is>
+      </c>
+      <c r="H53" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="2" t="n">
+        <v>52</v>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>003245</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>上投摩根中国世纪灵活配置混合美元现汇（QDII）</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>1.24</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>85.58</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>2.83</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>0.0351</t>
+        </is>
+      </c>
+      <c r="H54" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="2" t="n">
+        <v>53</v>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>008519</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>中金中证沪港深优选消费50指数A</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>0.88</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>93.24</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>3.96</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>0.0348</t>
+        </is>
+      </c>
+      <c r="H55" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="2" t="n">
+        <v>54</v>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>513320</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>易方达恒生港股通新经济ETF</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>0.49</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>98.67</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>7.04</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>0.0345</t>
+        </is>
+      </c>
+      <c r="H56" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="2" t="n">
+        <v>55</v>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>513230</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>华夏中证港股通消费主题ETF</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>0.50</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>96.82</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>4.95</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>0.0248</t>
+        </is>
+      </c>
+      <c r="H57" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="2" t="n">
+        <v>56</v>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>513070</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>易方达中证港股通消费主题ETF</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>0.49</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>96.86</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>5.06</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>0.0248</t>
+        </is>
+      </c>
+      <c r="H58" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="2" t="n">
+        <v>57</v>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>006786</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>泰康中证港股通大消费主题指数A</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>0.45</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>87.17</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>4.77</t>
+        </is>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>0.0215</t>
+        </is>
+      </c>
+      <c r="H59" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="2" t="n">
+        <v>58</v>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>004266</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>招商沪港深科技创新主题精选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>0.92</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>90.52</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>2.33</t>
+        </is>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>0.0214</t>
+        </is>
+      </c>
+      <c r="H60" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="2" t="n">
+        <v>59</v>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>513590</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>鹏华中证港股通消费主题ETF</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>0.52</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>79.92</t>
+        </is>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>4.08</t>
+        </is>
+      </c>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>0.0212</t>
+        </is>
+      </c>
+      <c r="H61" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="2" t="n">
+        <v>60</v>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>002333</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>汇丰晋信沪港深股票C</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>0.48</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>94.22</t>
+        </is>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>4.10</t>
+        </is>
+      </c>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t>0.0197</t>
+        </is>
+      </c>
+      <c r="H62" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="2" t="n">
+        <v>61</v>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>006923</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>前海开源沪港深非周期性行业股票A</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>0.26</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>86.78</t>
+        </is>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>7.50</t>
+        </is>
+      </c>
+      <c r="G63" t="inlineStr">
+        <is>
+          <t>0.0195</t>
+        </is>
+      </c>
+      <c r="H63" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="2" t="n">
+        <v>62</v>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>006924</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>前海开源沪港深非周期性行业股票C</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>0.20</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>86.78</t>
+        </is>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>7.50</t>
+        </is>
+      </c>
+      <c r="G64" t="inlineStr">
+        <is>
+          <t>0.0150</t>
+        </is>
+      </c>
+      <c r="H64" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="2" t="n">
+        <v>63</v>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>050015</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>博时大中华亚太精选股票（QDII）人民币</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>0.25</t>
+        </is>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>81.08</t>
+        </is>
+      </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>5.61</t>
+        </is>
+      </c>
+      <c r="G65" t="inlineStr">
+        <is>
+          <t>0.0140</t>
+        </is>
+      </c>
+      <c r="H65" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="2" t="n">
+        <v>64</v>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>000927</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>博时大中华亚太精选股票（QDII）美元现汇</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>0.25</t>
+        </is>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>81.08</t>
+        </is>
+      </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>5.61</t>
+        </is>
+      </c>
+      <c r="G66" t="inlineStr">
+        <is>
+          <t>0.0140</t>
+        </is>
+      </c>
+      <c r="H66" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="2" t="n">
+        <v>65</v>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>012209</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>华夏港股前沿经济混合（QDII）C</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>0.35</t>
+        </is>
+      </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>89.48</t>
+        </is>
+      </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>3.55</t>
+        </is>
+      </c>
+      <c r="G67" t="inlineStr">
+        <is>
+          <t>0.0124</t>
+        </is>
+      </c>
+      <c r="H67" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="2" t="n">
+        <v>66</v>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>008520</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>中金中证沪港深优选消费50指数C</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>0.30</t>
+        </is>
+      </c>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>93.24</t>
+        </is>
+      </c>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>3.96</t>
+        </is>
+      </c>
+      <c r="G68" t="inlineStr">
+        <is>
+          <t>0.0119</t>
+        </is>
+      </c>
+      <c r="H68" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="2" t="n">
+        <v>67</v>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>008407</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>恒生前海恒生沪深港通细分行业龙头指数A</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>0.26</t>
+        </is>
+      </c>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>93.67</t>
+        </is>
+      </c>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>3.43</t>
+        </is>
+      </c>
+      <c r="G69" t="inlineStr">
+        <is>
+          <t>0.0089</t>
+        </is>
+      </c>
+      <c r="H69" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="2" t="n">
+        <v>68</v>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>159978</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>建信中证沪港深粤港澳大湾区发展主题ETF</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>0.28</t>
+        </is>
+      </c>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>92.94</t>
+        </is>
+      </c>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>2.88</t>
+        </is>
+      </c>
+      <c r="G70" t="inlineStr">
+        <is>
+          <t>0.0081</t>
+        </is>
+      </c>
+      <c r="H70" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="2" t="n">
+        <v>69</v>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>012711</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>前海开源沪港深蓝筹精选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>0.08</t>
+        </is>
+      </c>
+      <c r="E71" t="inlineStr">
+        <is>
+          <t>92.76</t>
+        </is>
+      </c>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t>8.02</t>
+        </is>
+      </c>
+      <c r="G71" t="inlineStr">
+        <is>
+          <t>0.0064</t>
+        </is>
+      </c>
+      <c r="H71" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="2" t="n">
+        <v>70</v>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>010754</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>招商沪港深科技创新主题精选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>0.25</t>
+        </is>
+      </c>
+      <c r="E72" t="inlineStr">
+        <is>
+          <t>90.52</t>
+        </is>
+      </c>
+      <c r="F72" t="inlineStr">
+        <is>
+          <t>2.33</t>
+        </is>
+      </c>
+      <c r="G72" t="inlineStr">
+        <is>
+          <t>0.0058</t>
+        </is>
+      </c>
+      <c r="H72" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="2" t="n">
+        <v>71</v>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>015707</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>安信新能源主题股票A</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>0.18</t>
+        </is>
+      </c>
+      <c r="E73" t="inlineStr">
+        <is>
+          <t>53.26</t>
+        </is>
+      </c>
+      <c r="F73" t="inlineStr">
+        <is>
+          <t>2.99</t>
+        </is>
+      </c>
+      <c r="G73" t="inlineStr">
+        <is>
+          <t>0.0054</t>
+        </is>
+      </c>
+      <c r="H73" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="2" t="n">
+        <v>72</v>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>013182</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>安信港股通精选混合C</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>0.12</t>
+        </is>
+      </c>
+      <c r="E74" t="inlineStr">
+        <is>
+          <t>38.51</t>
+        </is>
+      </c>
+      <c r="F74" t="inlineStr">
+        <is>
+          <t>4.54</t>
+        </is>
+      </c>
+      <c r="G74" t="inlineStr">
+        <is>
+          <t>0.0054</t>
+        </is>
+      </c>
+      <c r="H74" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="2" t="n">
+        <v>73</v>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>005707</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>富国港股通量化精选股票A</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>0.22</t>
+        </is>
+      </c>
+      <c r="E75" t="inlineStr">
+        <is>
+          <t>89.83</t>
+        </is>
+      </c>
+      <c r="F75" t="inlineStr">
+        <is>
+          <t>2.42</t>
+        </is>
+      </c>
+      <c r="G75" t="inlineStr">
+        <is>
+          <t>0.0053</t>
+        </is>
+      </c>
+      <c r="H75" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="2" t="n">
+        <v>74</v>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>501067</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>招商富时中国AH50指数（LOF）A</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>0.16</t>
+        </is>
+      </c>
+      <c r="E76" t="inlineStr">
+        <is>
+          <t>94.29</t>
+        </is>
+      </c>
+      <c r="F76" t="inlineStr">
+        <is>
+          <t>2.92</t>
+        </is>
+      </c>
+      <c r="G76" t="inlineStr">
+        <is>
+          <t>0.0047</t>
+        </is>
+      </c>
+      <c r="H76" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="2" t="n">
+        <v>75</v>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>003279</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>融通沪港深智慧生活灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>0.10</t>
+        </is>
+      </c>
+      <c r="E77" t="inlineStr">
+        <is>
+          <t>55.71</t>
+        </is>
+      </c>
+      <c r="F77" t="inlineStr">
+        <is>
+          <t>4.42</t>
+        </is>
+      </c>
+      <c r="G77" t="inlineStr">
+        <is>
+          <t>0.0044</t>
+        </is>
+      </c>
+      <c r="H77" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="2" t="n">
+        <v>76</v>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>015708</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>安信新能源主题股票C</t>
+        </is>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>0.14</t>
+        </is>
+      </c>
+      <c r="E78" t="inlineStr">
+        <is>
+          <t>53.26</t>
+        </is>
+      </c>
+      <c r="F78" t="inlineStr">
+        <is>
+          <t>2.99</t>
+        </is>
+      </c>
+      <c r="G78" t="inlineStr">
+        <is>
+          <t>0.0042</t>
+        </is>
+      </c>
+      <c r="H78" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="2" t="n">
+        <v>77</v>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>010667</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>安信价值回报三年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>0.03</t>
+        </is>
+      </c>
+      <c r="E79" t="inlineStr">
+        <is>
+          <t>90.84</t>
+        </is>
+      </c>
+      <c r="F79" t="inlineStr">
+        <is>
+          <t>6.13</t>
+        </is>
+      </c>
+      <c r="G79" t="inlineStr">
+        <is>
+          <t>0.0018</t>
+        </is>
+      </c>
+      <c r="H79" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="2" t="n">
+        <v>78</v>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>008408</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>恒生前海恒生沪深港通细分行业龙头指数C</t>
+        </is>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t>0.05</t>
+        </is>
+      </c>
+      <c r="E80" t="inlineStr">
+        <is>
+          <t>93.67</t>
+        </is>
+      </c>
+      <c r="F80" t="inlineStr">
+        <is>
+          <t>3.43</t>
+        </is>
+      </c>
+      <c r="G80" t="inlineStr">
+        <is>
+          <t>0.0017</t>
+        </is>
+      </c>
+      <c r="H80" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" s="2" t="n">
+        <v>79</v>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>501068</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>招商富时中国AH50指数（LOF）C</t>
+        </is>
+      </c>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t>0.05</t>
+        </is>
+      </c>
+      <c r="E81" t="inlineStr">
+        <is>
+          <t>94.29</t>
+        </is>
+      </c>
+      <c r="F81" t="inlineStr">
+        <is>
+          <t>2.92</t>
+        </is>
+      </c>
+      <c r="G81" t="inlineStr">
+        <is>
+          <t>0.0015</t>
+        </is>
+      </c>
+      <c r="H81" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" s="2" t="n">
+        <v>80</v>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>014052</t>
+        </is>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>银华港股通精选股票C</t>
+        </is>
+      </c>
+      <c r="D82" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="E82" t="inlineStr">
+        <is>
+          <t>80.26</t>
+        </is>
+      </c>
+      <c r="F82" t="inlineStr">
+        <is>
+          <t>6.57</t>
+        </is>
+      </c>
+      <c r="G82" t="inlineStr">
+        <is>
+          <t>0.0013</t>
+        </is>
+      </c>
+      <c r="H82" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" s="2" t="n">
+        <v>81</v>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>013181</t>
+        </is>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>安信港股通精选混合A</t>
+        </is>
+      </c>
+      <c r="D83" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="E83" t="inlineStr">
+        <is>
+          <t>38.51</t>
+        </is>
+      </c>
+      <c r="F83" t="inlineStr">
+        <is>
+          <t>4.54</t>
+        </is>
+      </c>
+      <c r="G83" t="inlineStr">
+        <is>
+          <t>0.0009</t>
+        </is>
+      </c>
+      <c r="H83" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" s="2" t="n">
+        <v>82</v>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>014163</t>
+        </is>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>富国港股通量化精选股票C</t>
+        </is>
+      </c>
+      <c r="D84" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E84" t="inlineStr">
+        <is>
+          <t>89.83</t>
+        </is>
+      </c>
+      <c r="F84" t="inlineStr">
+        <is>
+          <t>2.42</t>
+        </is>
+      </c>
+      <c r="G84" t="n">
+        <v>0</v>
+      </c>
+      <c r="H84" t="n">
+        <v>7</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -4227,7 +7452,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -6525,7 +9750,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -9469,7 +12694,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -9715,7 +12940,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>

--- a/数据整理/stocks/港股/01211-比亚迪股份.xlsx
+++ b/数据整理/stocks/港股/01211-比亚迪股份.xlsx
@@ -7,12 +7,13 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q4" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="8" state="visible" r:id="rId8"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -456,7 +457,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:D8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -487,14 +488,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q3</t>
+          <t>2022-Q4</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="D2" t="n">
-        <v>44.34</v>
+        <v>54.59</v>
       </c>
     </row>
     <row r="3">
@@ -503,14 +504,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>95</v>
+        <v>83</v>
       </c>
       <c r="D3" t="n">
-        <v>38.28</v>
+        <v>44.34</v>
       </c>
     </row>
     <row r="4">
@@ -519,14 +520,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>59</v>
+        <v>95</v>
       </c>
       <c r="D4" t="n">
-        <v>28.68</v>
+        <v>38.28</v>
       </c>
     </row>
     <row r="5">
@@ -535,14 +536,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>76</v>
+        <v>59</v>
       </c>
       <c r="D5" t="n">
-        <v>49.26</v>
+        <v>28.68</v>
       </c>
     </row>
     <row r="6">
@@ -551,14 +552,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>5</v>
+        <v>76</v>
       </c>
       <c r="D6" t="n">
-        <v>0.77</v>
+        <v>49.26</v>
       </c>
     </row>
     <row r="7">
@@ -567,13 +568,29 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>5</v>
+      </c>
+      <c r="D7" t="n">
+        <v>0.77</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C7" t="n">
+      <c r="C8" t="n">
         <v>25</v>
       </c>
-      <c r="D7" t="n">
+      <c r="D8" t="n">
         <v>16.83</v>
       </c>
     </row>
@@ -583,6 +600,3252 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H85"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>005669</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>前海开源公用事业行业股票</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>168.84</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>94.23</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>5.51</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>9.3031</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>010730</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>银华心佳两年持有期混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>106.79</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>92.74</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>8.09</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>8.6393</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>005794</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>银华心怡灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>91.67</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>92.81</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>8.96</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>8.2136</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>012079</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>信澳新能源精选混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>40.55</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>93.85</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>9.77</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>3.9617</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>011173</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>银华心享一年持有期混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>78.97</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>90.63</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>4.79</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>3.7827</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>008954</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>安信价值回报三年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>31.39</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>90.42</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>6.74</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>2.1157</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>014585</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>银华心兴三年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>16.89</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>93.44</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>8.06</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>1.3613</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>513980</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>景顺长城中证港股通科技ETF</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>21.06</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>98.84</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>6.25</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>1.3162</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>012346</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>易方达港股通成长混合A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>30.88</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>89.23</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>3.88</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>1.1981</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>012892</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>安信优质企业三年持有混合A</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>15.58</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>90.59</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>7.29</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>1.1358</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>501311</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>嘉实恒生港股通新经济指数（LOF）A</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>18.19</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>94.62</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>5.79</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>1.0532</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>011162</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>博时港股通领先趋势混合A</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>16.79</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>92.24</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>5.93</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.9956</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>006614</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>嘉实恒生港股通新经济指数（LOF）C</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>16.73</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>94.62</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>5.79</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.9687</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>160918</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>大成中小盘混合（LOF）A</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>25.41</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>76.93</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>3.47</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.8817</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>012347</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>易方达港股通成长混合C</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>21.55</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>89.23</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>3.88</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.8361</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>001837</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>前海开源沪港深蓝筹精选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>11.55</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>93.25</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>6.37</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.7357</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>007291</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>汇丰晋信港股通双核策略混合</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>7.74</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>90.21</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>8.87</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.6865</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>513660</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>华夏沪港通恒生ETF</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>30.20</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>97.65</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>2.24</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.6765</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>005644</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>广发沪港深行业龙头混合</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>14.31</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>89.49</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>3.90</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.5581</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>012893</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>安信优质企业三年持有混合C</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>7.05</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>90.59</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>7.29</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.5139</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>014043</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>银华心怡灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>5.53</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>92.81</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>8.96</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.4955</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>008381</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>前海开源新兴产业混合A</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>6.29</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>90.12</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>6.80</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.4277</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>012208</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>华夏港股前沿经济混合（QDII）A</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>10.38</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>92.91</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>3.64</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.3778</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>002332</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>汇丰晋信沪港深股票A</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>4.46</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>90.48</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>8.20</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.3657</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>014919</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>银华心选一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>8.05</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>91.33</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>3.76</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.3027</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>513860</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>海富通中证港股通科技ETF</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>4.55</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>96.29</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>6.20</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.2821</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>011163</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>博时港股通领先趋势混合C</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>4.32</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>92.24</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>5.93</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.2562</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>011159</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>大成中小盘混合（LOF）C</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>7.32</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>76.93</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>3.47</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.2540</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>005197</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>工银瑞信沪港深精选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>4.33</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>85.27</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>4.92</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.2130</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>014586</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>银华心兴三年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>2.62</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>93.44</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>8.06</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.2112</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>011256</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>交银施罗德鸿光一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>19.02</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>25.22</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>0.99</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.1883</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>513020</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>国泰中证港股通科技ETF</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>3.00</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>94.32</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>5.77</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.1731</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>002333</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>汇丰晋信沪港深股票C</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>1.79</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>90.48</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>8.20</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.1468</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>014729</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>前海开源新兴产业混合C</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>2.06</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>90.12</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>6.80</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.1401</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>014920</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>银华心选一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>3.64</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>91.33</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>3.76</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.1369</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>159747</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>南方中证香港科技ETF（QDII）</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>3.55</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>99.72</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>3.63</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.1289</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>517960</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>上投摩根中证沪港深科技100ETF</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>1.66</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>96.15</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>6.79</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.1127</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>159960</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>平安港股通恒生中国企业ETF</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>4.00</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>96.43</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>2.78</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0.1112</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>005198</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>工银瑞信沪港深精选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>2.15</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>85.27</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>4.92</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>0.1058</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>513150</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>华泰柏瑞中证港股通科技ETF</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>1.54</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>97.23</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>6.31</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>0.0972</t>
+        </is>
+      </c>
+      <c r="H41" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>501301</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>华宝香港大盘（LOF）A</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>2.34</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>94.60</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>3.60</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>0.0842</t>
+        </is>
+      </c>
+      <c r="H42" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>012833</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>交银施罗德鸿信一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>8.58</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>26.60</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>0.98</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>0.0841</t>
+        </is>
+      </c>
+      <c r="H43" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>011257</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>交银施罗德鸿光一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>6.45</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>25.22</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>0.99</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>0.0639</t>
+        </is>
+      </c>
+      <c r="H44" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>159751</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>鹏华中证港股通科技ETF</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>1.03</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>95.29</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>6.19</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>0.0638</t>
+        </is>
+      </c>
+      <c r="H45" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>006787</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>泰康中证港股通大消费主题指数C</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>1.28</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>94.75</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>4.17</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>0.0534</t>
+        </is>
+      </c>
+      <c r="H46" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>159735</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>银华中证港股通消费主题ETF</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>1.40</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>93.48</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>3.75</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>0.0525</t>
+        </is>
+      </c>
+      <c r="H47" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="2" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>009017</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>银华港股通精选股票A</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>0.88</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>91.72</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>5.83</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>0.0513</t>
+        </is>
+      </c>
+      <c r="H48" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="2" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>513070</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>易方达中证港股通消费主题ETF</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>1.31</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>96.56</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>3.89</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>0.0510</t>
+        </is>
+      </c>
+      <c r="H49" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="2" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>005250</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>银华估值优势混合</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>1.79</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>93.04</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>2.69</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>0.0482</t>
+        </is>
+      </c>
+      <c r="H50" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="2" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>008519</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>中金中证沪港深优选消费50指数A</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>1.07</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>93.03</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>4.35</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>0.0465</t>
+        </is>
+      </c>
+      <c r="H51" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>159750</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>招商中证香港科技ETF（QDII）</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>1.06</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>98.79</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>4.04</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>0.0428</t>
+        </is>
+      </c>
+      <c r="H52" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="2" t="n">
+        <v>51</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>517360</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>华安中证沪港深科技100ETF</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>0.61</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>96.98</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>6.48</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>0.0395</t>
+        </is>
+      </c>
+      <c r="H53" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="2" t="n">
+        <v>52</v>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>007151</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>前海开源沪港深聚瑞混合</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>0.65</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>89.66</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>5.98</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>0.0389</t>
+        </is>
+      </c>
+      <c r="H54" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="2" t="n">
+        <v>53</v>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>017627</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>长城港股通价值精选多策略混合C</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>0.81</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>89.12</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>4.24</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>0.0343</t>
+        </is>
+      </c>
+      <c r="H55" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="2" t="n">
+        <v>54</v>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>012834</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>交银施罗德鸿信一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>3.11</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>26.60</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>0.98</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>0.0305</t>
+        </is>
+      </c>
+      <c r="H56" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="2" t="n">
+        <v>55</v>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>513590</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>鹏华中证港股通消费主题ETF</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>0.77</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>94.06</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>3.82</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>0.0294</t>
+        </is>
+      </c>
+      <c r="H57" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="2" t="n">
+        <v>56</v>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>513960</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>博时港股通消费ETF</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>0.69</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>96.79</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>3.87</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>0.0267</t>
+        </is>
+      </c>
+      <c r="H58" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="2" t="n">
+        <v>57</v>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>006355</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>华宝香港大盘（LOF）C</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>0.67</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>94.60</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>3.60</t>
+        </is>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>0.0241</t>
+        </is>
+      </c>
+      <c r="H59" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="2" t="n">
+        <v>58</v>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>006786</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>泰康中证港股通大消费主题指数A</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>0.56</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>94.75</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>4.17</t>
+        </is>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>0.0234</t>
+        </is>
+      </c>
+      <c r="H60" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="2" t="n">
+        <v>59</v>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>513320</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>易方达恒生港股通新经济ETF</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>0.38</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>98.96</t>
+        </is>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>6.04</t>
+        </is>
+      </c>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>0.0230</t>
+        </is>
+      </c>
+      <c r="H61" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="2" t="n">
+        <v>60</v>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>513230</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>华夏中证港股通消费主题ETF</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>0.55</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>97.05</t>
+        </is>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>3.93</t>
+        </is>
+      </c>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t>0.0216</t>
+        </is>
+      </c>
+      <c r="H62" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="2" t="n">
+        <v>61</v>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>013248</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>交银鸿泰一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>1.93</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>30.45</t>
+        </is>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>1.10</t>
+        </is>
+      </c>
+      <c r="G63" t="inlineStr">
+        <is>
+          <t>0.0212</t>
+        </is>
+      </c>
+      <c r="H63" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="2" t="n">
+        <v>62</v>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>006923</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>前海开源沪港深非周期性行业股票A</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>0.28</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>90.65</t>
+        </is>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>6.40</t>
+        </is>
+      </c>
+      <c r="G64" t="inlineStr">
+        <is>
+          <t>0.0179</t>
+        </is>
+      </c>
+      <c r="H64" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="2" t="n">
+        <v>63</v>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>004098</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>前海开源港股通股息率50强股票</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>0.53</t>
+        </is>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>90.79</t>
+        </is>
+      </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>3.25</t>
+        </is>
+      </c>
+      <c r="G65" t="inlineStr">
+        <is>
+          <t>0.0172</t>
+        </is>
+      </c>
+      <c r="H65" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="2" t="n">
+        <v>64</v>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>010890</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>交银施罗德鸿福六个月持有期混合A</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>1.74</t>
+        </is>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>28.26</t>
+        </is>
+      </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>0.96</t>
+        </is>
+      </c>
+      <c r="G66" t="inlineStr">
+        <is>
+          <t>0.0167</t>
+        </is>
+      </c>
+      <c r="H66" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="2" t="n">
+        <v>65</v>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>000927</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>博时大中华亚太精选股票（QDII）美元现汇</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>0.28</t>
+        </is>
+      </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>88.48</t>
+        </is>
+      </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>5.79</t>
+        </is>
+      </c>
+      <c r="G67" t="inlineStr">
+        <is>
+          <t>0.0162</t>
+        </is>
+      </c>
+      <c r="H67" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="2" t="n">
+        <v>66</v>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>050015</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>博时大中华亚太精选股票（QDII）人民币</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>0.28</t>
+        </is>
+      </c>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>88.48</t>
+        </is>
+      </c>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>5.79</t>
+        </is>
+      </c>
+      <c r="G68" t="inlineStr">
+        <is>
+          <t>0.0162</t>
+        </is>
+      </c>
+      <c r="H68" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="2" t="n">
+        <v>67</v>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>006924</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>前海开源沪港深非周期性行业股票C</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>0.24</t>
+        </is>
+      </c>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>90.65</t>
+        </is>
+      </c>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>6.40</t>
+        </is>
+      </c>
+      <c r="G69" t="inlineStr">
+        <is>
+          <t>0.0154</t>
+        </is>
+      </c>
+      <c r="H69" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="2" t="n">
+        <v>68</v>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>008520</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>中金中证沪港深优选消费50指数C</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>0.33</t>
+        </is>
+      </c>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>93.03</t>
+        </is>
+      </c>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>4.35</t>
+        </is>
+      </c>
+      <c r="G70" t="inlineStr">
+        <is>
+          <t>0.0144</t>
+        </is>
+      </c>
+      <c r="H70" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="2" t="n">
+        <v>69</v>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>012209</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>华夏港股前沿经济混合（QDII）C</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>0.38</t>
+        </is>
+      </c>
+      <c r="E71" t="inlineStr">
+        <is>
+          <t>92.91</t>
+        </is>
+      </c>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t>3.64</t>
+        </is>
+      </c>
+      <c r="G71" t="inlineStr">
+        <is>
+          <t>0.0138</t>
+        </is>
+      </c>
+      <c r="H71" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="2" t="n">
+        <v>70</v>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>008407</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>恒生前海恒生沪深港通细分行业龙头指数A</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>0.27</t>
+        </is>
+      </c>
+      <c r="E72" t="inlineStr">
+        <is>
+          <t>94.63</t>
+        </is>
+      </c>
+      <c r="F72" t="inlineStr">
+        <is>
+          <t>3.39</t>
+        </is>
+      </c>
+      <c r="G72" t="inlineStr">
+        <is>
+          <t>0.0092</t>
+        </is>
+      </c>
+      <c r="H72" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="2" t="n">
+        <v>71</v>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>012711</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>前海开源沪港深蓝筹精选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>0.11</t>
+        </is>
+      </c>
+      <c r="E73" t="inlineStr">
+        <is>
+          <t>93.25</t>
+        </is>
+      </c>
+      <c r="F73" t="inlineStr">
+        <is>
+          <t>6.37</t>
+        </is>
+      </c>
+      <c r="G73" t="inlineStr">
+        <is>
+          <t>0.0070</t>
+        </is>
+      </c>
+      <c r="H73" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="2" t="n">
+        <v>72</v>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>015707</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>安信新能源主题股票A</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>0.18</t>
+        </is>
+      </c>
+      <c r="E74" t="inlineStr">
+        <is>
+          <t>87.28</t>
+        </is>
+      </c>
+      <c r="F74" t="inlineStr">
+        <is>
+          <t>3.60</t>
+        </is>
+      </c>
+      <c r="G74" t="inlineStr">
+        <is>
+          <t>0.0065</t>
+        </is>
+      </c>
+      <c r="H74" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="2" t="n">
+        <v>73</v>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>005707</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>富国港股通量化精选股票A</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>0.25</t>
+        </is>
+      </c>
+      <c r="E75" t="inlineStr">
+        <is>
+          <t>91.95</t>
+        </is>
+      </c>
+      <c r="F75" t="inlineStr">
+        <is>
+          <t>2.07</t>
+        </is>
+      </c>
+      <c r="G75" t="inlineStr">
+        <is>
+          <t>0.0052</t>
+        </is>
+      </c>
+      <c r="H75" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="2" t="n">
+        <v>74</v>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>015708</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>安信新能源主题股票C</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>0.13</t>
+        </is>
+      </c>
+      <c r="E76" t="inlineStr">
+        <is>
+          <t>87.28</t>
+        </is>
+      </c>
+      <c r="F76" t="inlineStr">
+        <is>
+          <t>3.60</t>
+        </is>
+      </c>
+      <c r="G76" t="inlineStr">
+        <is>
+          <t>0.0047</t>
+        </is>
+      </c>
+      <c r="H76" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="2" t="n">
+        <v>75</v>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>501068</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>招商富时中国AH50指数（LOF）C</t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>0.28</t>
+        </is>
+      </c>
+      <c r="E77" t="inlineStr">
+        <is>
+          <t>45.97</t>
+        </is>
+      </c>
+      <c r="F77" t="inlineStr">
+        <is>
+          <t>1.36</t>
+        </is>
+      </c>
+      <c r="G77" t="inlineStr">
+        <is>
+          <t>0.0038</t>
+        </is>
+      </c>
+      <c r="H77" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="2" t="n">
+        <v>76</v>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>501067</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>招商富时中国AH50指数（LOF）A</t>
+        </is>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>0.16</t>
+        </is>
+      </c>
+      <c r="E78" t="inlineStr">
+        <is>
+          <t>45.97</t>
+        </is>
+      </c>
+      <c r="F78" t="inlineStr">
+        <is>
+          <t>1.36</t>
+        </is>
+      </c>
+      <c r="G78" t="inlineStr">
+        <is>
+          <t>0.0022</t>
+        </is>
+      </c>
+      <c r="H78" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="2" t="n">
+        <v>77</v>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>010667</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>安信价值回报三年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>0.03</t>
+        </is>
+      </c>
+      <c r="E79" t="inlineStr">
+        <is>
+          <t>90.42</t>
+        </is>
+      </c>
+      <c r="F79" t="inlineStr">
+        <is>
+          <t>6.74</t>
+        </is>
+      </c>
+      <c r="G79" t="inlineStr">
+        <is>
+          <t>0.0020</t>
+        </is>
+      </c>
+      <c r="H79" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="2" t="n">
+        <v>78</v>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>013249</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>交银鸿泰一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t>0.18</t>
+        </is>
+      </c>
+      <c r="E80" t="inlineStr">
+        <is>
+          <t>30.45</t>
+        </is>
+      </c>
+      <c r="F80" t="inlineStr">
+        <is>
+          <t>1.10</t>
+        </is>
+      </c>
+      <c r="G80" t="inlineStr">
+        <is>
+          <t>0.0020</t>
+        </is>
+      </c>
+      <c r="H80" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" s="2" t="n">
+        <v>79</v>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>008408</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>恒生前海恒生沪深港通细分行业龙头指数C</t>
+        </is>
+      </c>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t>0.06</t>
+        </is>
+      </c>
+      <c r="E81" t="inlineStr">
+        <is>
+          <t>94.63</t>
+        </is>
+      </c>
+      <c r="F81" t="inlineStr">
+        <is>
+          <t>3.39</t>
+        </is>
+      </c>
+      <c r="G81" t="inlineStr">
+        <is>
+          <t>0.0020</t>
+        </is>
+      </c>
+      <c r="H81" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" s="2" t="n">
+        <v>80</v>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>014052</t>
+        </is>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>银华港股通精选股票C</t>
+        </is>
+      </c>
+      <c r="D82" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="E82" t="inlineStr">
+        <is>
+          <t>91.72</t>
+        </is>
+      </c>
+      <c r="F82" t="inlineStr">
+        <is>
+          <t>5.83</t>
+        </is>
+      </c>
+      <c r="G82" t="inlineStr">
+        <is>
+          <t>0.0012</t>
+        </is>
+      </c>
+      <c r="H82" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" s="2" t="n">
+        <v>81</v>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>010891</t>
+        </is>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>交银施罗德鸿福六个月持有期混合C</t>
+        </is>
+      </c>
+      <c r="D83" t="inlineStr">
+        <is>
+          <t>0.05</t>
+        </is>
+      </c>
+      <c r="E83" t="inlineStr">
+        <is>
+          <t>28.26</t>
+        </is>
+      </c>
+      <c r="F83" t="inlineStr">
+        <is>
+          <t>0.96</t>
+        </is>
+      </c>
+      <c r="G83" t="inlineStr">
+        <is>
+          <t>0.0005</t>
+        </is>
+      </c>
+      <c r="H83" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" s="2" t="n">
+        <v>82</v>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>014163</t>
+        </is>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>富国港股通量化精选股票C</t>
+        </is>
+      </c>
+      <c r="D84" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E84" t="inlineStr">
+        <is>
+          <t>91.95</t>
+        </is>
+      </c>
+      <c r="F84" t="inlineStr">
+        <is>
+          <t>2.07</t>
+        </is>
+      </c>
+      <c r="G84" t="inlineStr">
+        <is>
+          <t>0.0002</t>
+        </is>
+      </c>
+      <c r="H84" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" s="2" t="n">
+        <v>83</v>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>007132</t>
+        </is>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>长城港股通价值精选多策略混合A</t>
+        </is>
+      </c>
+      <c r="D85" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E85" t="inlineStr">
+        <is>
+          <t>89.12</t>
+        </is>
+      </c>
+      <c r="F85" t="inlineStr">
+        <is>
+          <t>4.24</t>
+        </is>
+      </c>
+      <c r="G85" t="n">
+        <v>0</v>
+      </c>
+      <c r="H85" t="n">
+        <v>6</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -3790,7 +7053,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -7452,7 +10715,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -9750,7 +13013,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -12694,7 +15957,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -12940,7 +16203,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
